--- a/ReportRequirement.xlsx
+++ b/ReportRequirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38868AF2-F489-49C9-83FD-2DBDC6922A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A68D7-4422-4D02-8688-06A21BDACA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{679451B8-F198-4B6A-AEAE-17BB625CFCDA}"/>
   </bookViews>
@@ -460,13 +460,6 @@
   </si>
   <si>
     <t>Age unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If CMINDC= 'Adverse Event' 
-and corresponding AEDSL does not exist record in AE_GL_901 with the 
-AECONTRT= 'Yes' 
-then output
-Note to programmers: Please refer to RAVE extract and use corresponding _dd,_mm,_yy variables to populate date field. </t>
   </si>
   <si>
     <t xml:space="preserve">If Indication for this CM is 'Adverse Event', there must be an Adverse Event recorded where the question 'concomitant treatment?' is answered yes. </t>
@@ -994,6 +987,14 @@
   </si>
   <si>
     <t>Listing1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If CMINDC= 'Adverse Event' 
+and 
+AECONTRT= 'Yes' 
+then output
+if no corresponding AEDSL is provided: AEDSL1  or AEDSL2 or AEDSL3 or AEDLS4 or AEDSL5
+</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1287,17 +1288,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1311,38 +1339,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1888,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13975DF8-9F5D-4B3D-9DC7-C137A6F1ABAD}">
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D162" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L159" sqref="L159:L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.54296875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1913,7 +1917,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1922,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="57" t="s">
-        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1946,33 +1950,33 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39">
+      <c r="A2" s="44">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>148</v>
+      <c r="E2" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
@@ -1987,35 +1991,35 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="N2" s="48" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="str">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="43" t="str">
         <f t="shared" ref="C3:E3" si="0">C2</f>
         <v>DM Review</v>
       </c>
-      <c r="D3" s="48" t="str">
+      <c r="D3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E3" s="48" t="str">
+      <c r="E3" s="43" t="str">
         <f t="shared" si="0"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>12</v>
@@ -2030,29 +2034,29 @@
         <v>2</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L3" s="41"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="48" t="str">
+      <c r="A4" s="45"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43" t="str">
         <f t="shared" ref="C4:E4" si="1">C3</f>
         <v>DM Review</v>
       </c>
-      <c r="D4" s="48" t="str">
+      <c r="D4" s="43" t="str">
         <f t="shared" si="1"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E4" s="48" t="str">
+      <c r="E4" s="43" t="str">
         <f t="shared" si="1"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2067,29 +2071,29 @@
         <v>3</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" s="49"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="48" t="str">
+      <c r="A5" s="45"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="43" t="str">
         <f t="shared" ref="C5:E5" si="2">C4</f>
         <v>DM Review</v>
       </c>
-      <c r="D5" s="48" t="str">
+      <c r="D5" s="43" t="str">
         <f t="shared" si="2"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E5" s="48" t="str">
+      <c r="E5" s="43" t="str">
         <f t="shared" si="2"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -2104,27 +2108,27 @@
         <v>4</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="48" t="str">
+      <c r="A6" s="45"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="43" t="str">
         <f t="shared" ref="C6:E6" si="3">C5</f>
         <v>DM Review</v>
       </c>
-      <c r="D6" s="48" t="str">
+      <c r="D6" s="43" t="str">
         <f t="shared" si="3"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E6" s="48" t="str">
+      <c r="E6" s="43" t="str">
         <f t="shared" si="3"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -2139,27 +2143,27 @@
         <v>5</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48" t="str">
+      <c r="A7" s="45"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="43" t="str">
         <f t="shared" ref="C7:E7" si="4">C6</f>
         <v>DM Review</v>
       </c>
-      <c r="D7" s="48" t="str">
+      <c r="D7" s="43" t="str">
         <f t="shared" si="4"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E7" s="48" t="str">
+      <c r="E7" s="43" t="str">
         <f t="shared" si="4"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
@@ -2172,27 +2176,27 @@
         <v>6</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="48" t="str">
+      <c r="A8" s="45"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="43" t="str">
         <f t="shared" ref="C8:E8" si="5">C7</f>
         <v>DM Review</v>
       </c>
-      <c r="D8" s="48" t="str">
+      <c r="D8" s="43" t="str">
         <f t="shared" si="5"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E8" s="48" t="str">
+      <c r="E8" s="43" t="str">
         <f t="shared" si="5"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
@@ -2205,27 +2209,27 @@
         <v>7</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="48" t="str">
+      <c r="A9" s="45"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="43" t="str">
         <f t="shared" ref="C9:E9" si="6">C8</f>
         <v>DM Review</v>
       </c>
-      <c r="D9" s="48" t="str">
+      <c r="D9" s="43" t="str">
         <f t="shared" si="6"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E9" s="48" t="str">
+      <c r="E9" s="43" t="str">
         <f t="shared" si="6"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
@@ -2238,27 +2242,27 @@
         <v>8</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="48" t="str">
+      <c r="A10" s="45"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="43" t="str">
         <f t="shared" ref="C10:E10" si="7">C9</f>
         <v>DM Review</v>
       </c>
-      <c r="D10" s="48" t="str">
+      <c r="D10" s="43" t="str">
         <f t="shared" si="7"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E10" s="48" t="str">
+      <c r="E10" s="43" t="str">
         <f t="shared" si="7"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
@@ -2271,27 +2275,27 @@
         <v>9</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="48" t="str">
+      <c r="A11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="43" t="str">
         <f t="shared" ref="C11:E11" si="8">C10</f>
         <v>DM Review</v>
       </c>
-      <c r="D11" s="48" t="str">
+      <c r="D11" s="43" t="str">
         <f t="shared" si="8"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E11" s="48" t="str">
+      <c r="E11" s="43" t="str">
         <f t="shared" si="8"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
@@ -2306,27 +2310,27 @@
       <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="48" t="str">
+      <c r="A12" s="45"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="43" t="str">
         <f t="shared" ref="C12:E12" si="9">C11</f>
         <v>DM Review</v>
       </c>
-      <c r="D12" s="48" t="str">
+      <c r="D12" s="43" t="str">
         <f t="shared" si="9"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E12" s="48" t="str">
+      <c r="E12" s="43" t="str">
         <f t="shared" si="9"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>100</v>
@@ -2341,27 +2345,27 @@
         <v>11</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="48" t="str">
+      <c r="A13" s="45"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="43" t="str">
         <f t="shared" ref="C13:E13" si="10">C12</f>
         <v>DM Review</v>
       </c>
-      <c r="D13" s="48" t="str">
+      <c r="D13" s="43" t="str">
         <f t="shared" si="10"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E13" s="48" t="str">
+      <c r="E13" s="43" t="str">
         <f t="shared" si="10"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>102</v>
@@ -2376,33 +2380,33 @@
         <v>12</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="48" t="str">
+      <c r="A14" s="45"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="43" t="str">
         <f t="shared" ref="C14:E14" si="11">C13</f>
         <v>DM Review</v>
       </c>
-      <c r="D14" s="48" t="str">
+      <c r="D14" s="43" t="str">
         <f t="shared" si="11"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E14" s="48" t="str">
+      <c r="E14" s="43" t="str">
         <f t="shared" si="11"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="31" t="s">
         <v>37</v>
@@ -2411,27 +2415,27 @@
         <v>13</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="48" t="str">
+      <c r="A15" s="45"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="43" t="str">
         <f t="shared" ref="C15:E15" si="12">C14</f>
         <v>DM Review</v>
       </c>
-      <c r="D15" s="48" t="str">
+      <c r="D15" s="43" t="str">
         <f t="shared" si="12"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E15" s="48" t="str">
+      <c r="E15" s="43" t="str">
         <f t="shared" si="12"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>114</v>
@@ -2440,69 +2444,69 @@
         <v>114</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="32">
         <v>14</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48" t="str">
+      <c r="A16" s="45"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="43" t="str">
         <f t="shared" ref="C16:E16" si="13">C15</f>
         <v>DM Review</v>
       </c>
-      <c r="D16" s="48" t="str">
+      <c r="D16" s="43" t="str">
         <f t="shared" si="13"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E16" s="48" t="str">
+      <c r="E16" s="43" t="str">
         <f t="shared" si="13"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J16" s="32">
         <v>15</v>
       </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="52">
         <v>2</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>147</v>
+      <c r="E17" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
@@ -2517,35 +2521,35 @@
         <v>1</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="48" t="s">
+      <c r="M17" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="N17" s="48" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="18" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="51" t="str">
+      <c r="A18" s="53"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="46" t="str">
         <f t="shared" ref="C18:E30" si="14">C17</f>
         <v>DM Review</v>
       </c>
-      <c r="D18" s="51" t="str">
+      <c r="D18" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E18" s="51" t="str">
+      <c r="E18" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>12</v>
@@ -2560,29 +2564,29 @@
         <v>2</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51" t="str">
+      <c r="A19" s="53"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D19" s="51" t="str">
+      <c r="D19" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E19" s="51" t="str">
+      <c r="E19" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>14</v>
@@ -2597,29 +2601,29 @@
         <v>3</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L19" s="50"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="51" t="str">
+      <c r="A20" s="53"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D20" s="51" t="str">
+      <c r="D20" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E20" s="51" t="str">
+      <c r="E20" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>17</v>
@@ -2634,27 +2638,27 @@
         <v>4</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="51" t="str">
+      <c r="A21" s="53"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D21" s="51" t="str">
+      <c r="D21" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E21" s="51" t="str">
+      <c r="E21" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>19</v>
@@ -2669,27 +2673,27 @@
         <v>5</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="51" t="str">
+      <c r="A22" s="53"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D22" s="51" t="str">
+      <c r="D22" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E22" s="51" t="str">
+      <c r="E22" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
@@ -2702,27 +2706,27 @@
         <v>6</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="51" t="str">
+      <c r="A23" s="53"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D23" s="51" t="str">
+      <c r="D23" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E23" s="51" t="str">
+      <c r="E23" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
@@ -2735,27 +2739,27 @@
         <v>7</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="51" t="str">
+      <c r="A24" s="53"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D24" s="51" t="str">
+      <c r="D24" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E24" s="51" t="str">
+      <c r="E24" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
@@ -2768,27 +2772,27 @@
         <v>8</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="51" t="str">
+      <c r="A25" s="53"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D25" s="51" t="str">
+      <c r="D25" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E25" s="51" t="str">
+      <c r="E25" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
@@ -2801,27 +2805,27 @@
         <v>9</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="51" t="str">
+      <c r="A26" s="53"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D26" s="51" t="str">
+      <c r="D26" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E26" s="51" t="str">
+      <c r="E26" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
@@ -2836,18 +2840,18 @@
       <c r="K26" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>28</v>
@@ -2862,27 +2866,27 @@
         <v>11</v>
       </c>
       <c r="K27" s="11"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="51" t="str">
+      <c r="A28" s="53"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="46" t="str">
         <f>C26</f>
         <v>DM Review</v>
       </c>
-      <c r="D28" s="51" t="str">
+      <c r="D28" s="46" t="str">
         <f>D26</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E28" s="51" t="str">
+      <c r="E28" s="46" t="str">
         <f>E26</f>
         <v>CM_DEMO</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>30</v>
@@ -2897,27 +2901,27 @@
         <v>12</v>
       </c>
       <c r="K28" s="11"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="51" t="str">
+      <c r="A29" s="53"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D29" s="51" t="str">
+      <c r="D29" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E29" s="51" t="str">
+      <c r="E29" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>32</v>
@@ -2932,27 +2936,27 @@
         <v>13</v>
       </c>
       <c r="K29" s="11"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="51" t="str">
+      <c r="A30" s="53"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="46" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D30" s="51" t="str">
+      <c r="D30" s="46" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E30" s="51" t="str">
+      <c r="E30" s="46" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>34</v>
@@ -2967,18 +2971,18 @@
         <v>14</v>
       </c>
       <c r="K30" s="11"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>36</v>
@@ -2993,18 +2997,18 @@
         <v>15</v>
       </c>
       <c r="K31" s="11"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>38</v>
@@ -3019,18 +3023,18 @@
         <v>16</v>
       </c>
       <c r="K32" s="11"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>40</v>
@@ -3045,18 +3049,18 @@
         <v>17</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>42</v>
@@ -3071,18 +3075,18 @@
         <v>18</v>
       </c>
       <c r="K34" s="11"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>44</v>
@@ -3097,18 +3101,18 @@
         <v>19</v>
       </c>
       <c r="K35" s="11"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>46</v>
@@ -3123,18 +3127,18 @@
         <v>20</v>
       </c>
       <c r="K36" s="11"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>28</v>
@@ -3149,27 +3153,27 @@
         <v>21</v>
       </c>
       <c r="K37" s="11"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="51" t="str">
+      <c r="A38" s="53"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="46" t="str">
         <f>C30</f>
         <v>DM Review</v>
       </c>
-      <c r="D38" s="51" t="str">
+      <c r="D38" s="46" t="str">
         <f>D30</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E38" s="51" t="str">
+      <c r="E38" s="46" t="str">
         <f>E30</f>
         <v>CM_DEMO</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>50</v>
@@ -3184,27 +3188,27 @@
         <v>22</v>
       </c>
       <c r="K38" s="11"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="51" t="str">
+      <c r="A39" s="53"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="46" t="str">
         <f t="shared" ref="C39:E39" si="15">C38</f>
         <v>DM Review</v>
       </c>
-      <c r="D39" s="51" t="str">
+      <c r="D39" s="46" t="str">
         <f t="shared" si="15"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E39" s="51" t="str">
+      <c r="E39" s="46" t="str">
         <f t="shared" si="15"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>52</v>
@@ -3219,18 +3223,18 @@
         <v>23</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>54</v>
@@ -3245,28 +3249,28 @@
         <v>24</v>
       </c>
       <c r="K40" s="11"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
     </row>
     <row r="41" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="43">
+      <c r="A41" s="52">
         <v>3</v>
       </c>
-      <c r="B41" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="51" t="s">
+      <c r="B41" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="51" t="s">
+      <c r="D41" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="51" t="s">
-        <v>147</v>
+      <c r="E41" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>10</v>
@@ -3281,38 +3285,38 @@
         <v>1</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L41" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="M41" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="N41" s="48" t="s">
+      <c r="M41" s="43" t="s">
         <v>141</v>
       </c>
+      <c r="N41" s="43" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="44"/>
-      <c r="B42" s="51" t="str">
+      <c r="A42" s="53"/>
+      <c r="B42" s="46" t="str">
         <f t="shared" ref="B42:E57" si="16">B41</f>
         <v>Listing3</v>
       </c>
-      <c r="C42" s="51" t="str">
+      <c r="C42" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D42" s="51" t="str">
+      <c r="D42" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E42" s="51" t="str">
+      <c r="E42" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>12</v>
@@ -3327,32 +3331,32 @@
         <v>2</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L42" s="49"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L42" s="41"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="44"/>
-      <c r="B43" s="51" t="str">
+      <c r="A43" s="53"/>
+      <c r="B43" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C43" s="51" t="str">
+      <c r="C43" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D43" s="51" t="str">
+      <c r="D43" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E43" s="51" t="str">
+      <c r="E43" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -3367,32 +3371,32 @@
         <v>3</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L43" s="41"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="44"/>
-      <c r="B44" s="51" t="str">
+      <c r="A44" s="53"/>
+      <c r="B44" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C44" s="51" t="str">
+      <c r="C44" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D44" s="51" t="str">
+      <c r="D44" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E44" s="51" t="str">
+      <c r="E44" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>17</v>
@@ -3407,30 +3411,30 @@
         <v>4</v>
       </c>
       <c r="K44" s="12"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="44"/>
-      <c r="B45" s="51" t="str">
+      <c r="A45" s="53"/>
+      <c r="B45" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C45" s="51" t="str">
+      <c r="C45" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D45" s="51" t="str">
+      <c r="D45" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E45" s="51" t="str">
+      <c r="E45" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>19</v>
@@ -3445,30 +3449,30 @@
         <v>5</v>
       </c>
       <c r="K45" s="12"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="44"/>
-      <c r="B46" s="51" t="str">
+      <c r="A46" s="53"/>
+      <c r="B46" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C46" s="51" t="str">
+      <c r="C46" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D46" s="51" t="str">
+      <c r="D46" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E46" s="51" t="str">
+      <c r="E46" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
@@ -3481,30 +3485,30 @@
         <v>6</v>
       </c>
       <c r="K46" s="12"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
-      <c r="B47" s="51" t="str">
+      <c r="A47" s="53"/>
+      <c r="B47" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C47" s="51" t="str">
+      <c r="C47" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D47" s="51" t="str">
+      <c r="D47" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E47" s="51" t="str">
+      <c r="E47" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
@@ -3517,30 +3521,30 @@
         <v>7</v>
       </c>
       <c r="K47" s="12"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="51" t="str">
+      <c r="A48" s="53"/>
+      <c r="B48" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C48" s="51" t="str">
+      <c r="C48" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D48" s="51" t="str">
+      <c r="D48" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E48" s="51" t="str">
+      <c r="E48" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
@@ -3553,30 +3557,30 @@
         <v>8</v>
       </c>
       <c r="K48" s="12"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="44"/>
-      <c r="B49" s="51" t="str">
+      <c r="A49" s="53"/>
+      <c r="B49" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C49" s="51" t="str">
+      <c r="C49" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D49" s="51" t="str">
+      <c r="D49" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E49" s="51" t="str">
+      <c r="E49" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
@@ -3589,30 +3593,30 @@
         <v>9</v>
       </c>
       <c r="K49" s="12"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="48"/>
-      <c r="N49" s="48"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="44"/>
-      <c r="B50" s="51" t="str">
+      <c r="A50" s="53"/>
+      <c r="B50" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C50" s="51" t="str">
+      <c r="C50" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D50" s="51" t="str">
+      <c r="D50" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E50" s="51" t="str">
+      <c r="E50" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
@@ -3627,30 +3631,30 @@
       <c r="K50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L50" s="49"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="44"/>
-      <c r="B51" s="51" t="str">
+      <c r="A51" s="53"/>
+      <c r="B51" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C51" s="51" t="str">
+      <c r="C51" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D51" s="51" t="str">
+      <c r="D51" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E51" s="51" t="str">
+      <c r="E51" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>30</v>
@@ -3665,30 +3669,30 @@
         <v>11</v>
       </c>
       <c r="K51" s="14"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="48"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
-      <c r="B52" s="51" t="str">
+      <c r="A52" s="53"/>
+      <c r="B52" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C52" s="51" t="str">
+      <c r="C52" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D52" s="51" t="str">
+      <c r="D52" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E52" s="51" t="str">
+      <c r="E52" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>56</v>
@@ -3703,30 +3707,30 @@
         <v>12</v>
       </c>
       <c r="K52" s="14"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
-      <c r="B53" s="51" t="str">
+      <c r="A53" s="53"/>
+      <c r="B53" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C53" s="51" t="str">
+      <c r="C53" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D53" s="51" t="str">
+      <c r="D53" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E53" s="51" t="str">
+      <c r="E53" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>58</v>
@@ -3741,30 +3745,30 @@
         <v>13</v>
       </c>
       <c r="K53" s="14"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="44"/>
-      <c r="B54" s="51" t="str">
+      <c r="A54" s="53"/>
+      <c r="B54" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C54" s="51" t="str">
+      <c r="C54" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D54" s="51" t="str">
+      <c r="D54" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E54" s="51" t="str">
+      <c r="E54" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>60</v>
@@ -3779,30 +3783,30 @@
         <v>14</v>
       </c>
       <c r="K54" s="14"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="44"/>
-      <c r="B55" s="51" t="str">
+      <c r="A55" s="53"/>
+      <c r="B55" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C55" s="51" t="str">
+      <c r="C55" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D55" s="51" t="str">
+      <c r="D55" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E55" s="51" t="str">
+      <c r="E55" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>32</v>
@@ -3817,30 +3821,30 @@
         <v>15</v>
       </c>
       <c r="K55" s="14"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="48"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
-      <c r="B56" s="51" t="str">
+      <c r="A56" s="53"/>
+      <c r="B56" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C56" s="51" t="str">
+      <c r="C56" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D56" s="51" t="str">
+      <c r="D56" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E56" s="51" t="str">
+      <c r="E56" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>34</v>
@@ -3855,30 +3859,30 @@
         <v>16</v>
       </c>
       <c r="K56" s="14"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
-      <c r="B57" s="51" t="str">
+      <c r="A57" s="53"/>
+      <c r="B57" s="46" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C57" s="51" t="str">
+      <c r="C57" s="46" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D57" s="51" t="str">
+      <c r="D57" s="46" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E57" s="51" t="str">
+      <c r="E57" s="46" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>36</v>
@@ -3893,30 +3897,30 @@
         <v>17</v>
       </c>
       <c r="K57" s="14"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="44"/>
-      <c r="B58" s="51" t="str">
+      <c r="A58" s="53"/>
+      <c r="B58" s="46" t="str">
         <f t="shared" ref="B58:E58" si="17">B57</f>
         <v>Listing3</v>
       </c>
-      <c r="C58" s="51" t="str">
+      <c r="C58" s="46" t="str">
         <f t="shared" si="17"/>
         <v>DM Review</v>
       </c>
-      <c r="D58" s="51" t="str">
+      <c r="D58" s="46" t="str">
         <f t="shared" si="17"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E58" s="51" t="str">
+      <c r="E58" s="46" t="str">
         <f t="shared" si="17"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F58" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>28</v>
@@ -3931,28 +3935,28 @@
         <v>18</v>
       </c>
       <c r="K58" s="14"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="48"/>
-      <c r="N58" s="48"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
     </row>
     <row r="59" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="43">
+      <c r="A59" s="52">
         <v>4</v>
       </c>
-      <c r="B59" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="52" t="s">
+      <c r="D59" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="52" t="s">
-        <v>151</v>
+      <c r="E59" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="F59" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>10</v>
@@ -3967,26 +3971,26 @@
         <v>1</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L59" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L59" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="M59" s="48" t="s">
+      <c r="M59" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="N59" s="48" t="s">
-        <v>152</v>
+      <c r="N59" s="43" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="44"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
       <c r="F60" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>12</v>
@@ -4001,20 +4005,20 @@
         <v>2</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L60" s="49"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L60" s="41"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
     </row>
     <row r="61" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="44"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>14</v>
@@ -4029,20 +4033,20 @@
         <v>3</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L61" s="49"/>
-      <c r="M61" s="48"/>
-      <c r="N61" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L61" s="41"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="44"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
       <c r="F62" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>17</v>
@@ -4057,18 +4061,18 @@
         <v>4</v>
       </c>
       <c r="K62" s="12"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="44"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>19</v>
@@ -4083,18 +4087,18 @@
         <v>5</v>
       </c>
       <c r="K63" s="12"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="44"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
       <c r="F64" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
@@ -4107,18 +4111,18 @@
         <v>6</v>
       </c>
       <c r="K64" s="12"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="44"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
@@ -4131,18 +4135,18 @@
         <v>7</v>
       </c>
       <c r="K65" s="12"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="44"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
       <c r="F66" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
@@ -4155,18 +4159,18 @@
         <v>8</v>
       </c>
       <c r="K66" s="12"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="43"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="44"/>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
@@ -4179,18 +4183,18 @@
         <v>9</v>
       </c>
       <c r="K67" s="12"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="44"/>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
@@ -4205,18 +4209,18 @@
       <c r="K68" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L68" s="49"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>66</v>
@@ -4231,18 +4235,18 @@
         <v>11</v>
       </c>
       <c r="K69" s="14"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="44"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>68</v>
@@ -4257,18 +4261,18 @@
         <v>12</v>
       </c>
       <c r="K70" s="14"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="44"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>52</v>
@@ -4283,18 +4287,18 @@
         <v>13</v>
       </c>
       <c r="K71" s="14"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="44"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>70</v>
@@ -4309,18 +4313,18 @@
         <v>14</v>
       </c>
       <c r="K72" s="14"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="48"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="44"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
       <c r="F73" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>54</v>
@@ -4335,18 +4339,18 @@
         <v>15</v>
       </c>
       <c r="K73" s="14"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="43"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>72</v>
@@ -4361,18 +4365,18 @@
         <v>16</v>
       </c>
       <c r="K74" s="14"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="48"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="43"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="44"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
       <c r="F75" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>28</v>
@@ -4387,28 +4391,28 @@
         <v>18</v>
       </c>
       <c r="K75" s="14"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="48"/>
-      <c r="N75" s="48"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="43"/>
     </row>
     <row r="76" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="43">
+      <c r="A76" s="52">
         <v>5</v>
       </c>
-      <c r="B76" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="51" t="s">
+      <c r="B76" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="51" t="s">
-        <v>147</v>
+      <c r="E76" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>10</v>
@@ -4423,35 +4427,35 @@
         <v>1</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L76" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L76" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="M76" s="48" t="s">
+      <c r="M76" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="N76" s="48" t="s">
-        <v>153</v>
+      <c r="N76" s="43" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="44"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51" t="str">
+      <c r="A77" s="53"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46" t="str">
         <f t="shared" ref="C77:E88" si="18">C76</f>
         <v>DM Review</v>
       </c>
-      <c r="D77" s="51" t="str">
+      <c r="D77" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E77" s="51" t="str">
+      <c r="E77" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>12</v>
@@ -4466,29 +4470,29 @@
         <v>2</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L77" s="49"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L77" s="41"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="43"/>
     </row>
     <row r="78" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="44"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51" t="str">
+      <c r="A78" s="53"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D78" s="51" t="str">
+      <c r="D78" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E78" s="51" t="str">
+      <c r="E78" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F78" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>14</v>
@@ -4503,29 +4507,29 @@
         <v>3</v>
       </c>
       <c r="K78" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L78" s="49"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L78" s="41"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="43"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="44"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51" t="str">
+      <c r="A79" s="53"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D79" s="51" t="str">
+      <c r="D79" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E79" s="51" t="str">
+      <c r="E79" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F79" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>17</v>
@@ -4540,27 +4544,27 @@
         <v>4</v>
       </c>
       <c r="K79" s="7"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="48"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="44"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="str">
+      <c r="A80" s="53"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D80" s="51" t="str">
+      <c r="D80" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E80" s="51" t="str">
+      <c r="E80" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F80" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>19</v>
@@ -4575,27 +4579,27 @@
         <v>5</v>
       </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="48"/>
-      <c r="N80" s="48"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="44"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51" t="str">
+      <c r="A81" s="53"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D81" s="51" t="str">
+      <c r="D81" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E81" s="51" t="str">
+      <c r="E81" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F81" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
@@ -4608,27 +4612,27 @@
         <v>6</v>
       </c>
       <c r="K81" s="7"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="48"/>
-      <c r="N81" s="48"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="43"/>
+      <c r="N81" s="43"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="44"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51" t="str">
+      <c r="A82" s="53"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D82" s="51" t="str">
+      <c r="D82" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E82" s="51" t="str">
+      <c r="E82" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
@@ -4641,27 +4645,27 @@
         <v>7</v>
       </c>
       <c r="K82" s="7"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="48"/>
-      <c r="N82" s="48"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="43"/>
+      <c r="N82" s="43"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="44"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="str">
+      <c r="A83" s="53"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D83" s="51" t="str">
+      <c r="D83" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E83" s="51" t="str">
+      <c r="E83" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F83" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
@@ -4674,27 +4678,27 @@
         <v>8</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="48"/>
-      <c r="N83" s="48"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="43"/>
+      <c r="N83" s="43"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="44"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51" t="str">
+      <c r="A84" s="53"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D84" s="51" t="str">
+      <c r="D84" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E84" s="51" t="str">
+      <c r="E84" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F84" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
@@ -4707,27 +4711,27 @@
         <v>9</v>
       </c>
       <c r="K84" s="7"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="48"/>
-      <c r="N84" s="48"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="44"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51" t="str">
+      <c r="A85" s="53"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D85" s="51" t="str">
+      <c r="D85" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E85" s="51" t="str">
+      <c r="E85" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F85" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
@@ -4742,27 +4746,27 @@
       <c r="K85" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L85" s="49"/>
-      <c r="M85" s="48"/>
-      <c r="N85" s="48"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="44"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="str">
+      <c r="A86" s="53"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D86" s="51" t="str">
+      <c r="D86" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E86" s="51" t="str">
+      <c r="E86" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F86" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>30</v>
@@ -4777,27 +4781,27 @@
         <v>11</v>
       </c>
       <c r="K86" s="11"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="48"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="43"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="44"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51" t="str">
+      <c r="A87" s="53"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D87" s="51" t="str">
+      <c r="D87" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E87" s="51" t="str">
+      <c r="E87" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F87" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>32</v>
@@ -4812,27 +4816,27 @@
         <v>12</v>
       </c>
       <c r="K87" s="11"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="48"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="43"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="44"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51" t="str">
+      <c r="A88" s="53"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D88" s="51" t="str">
+      <c r="D88" s="46" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E88" s="51" t="str">
+      <c r="E88" s="46" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F88" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>34</v>
@@ -4847,18 +4851,18 @@
         <v>13</v>
       </c>
       <c r="K88" s="11"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="48"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="43"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="44"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
+      <c r="A89" s="53"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>38</v>
@@ -4873,18 +4877,18 @@
         <v>14</v>
       </c>
       <c r="K89" s="11"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="43"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="44"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>40</v>
@@ -4899,18 +4903,18 @@
         <v>15</v>
       </c>
       <c r="K90" s="11"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="48"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="43"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="44"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
+      <c r="A91" s="53"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
       <c r="F91" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>42</v>
@@ -4925,18 +4929,18 @@
         <v>16</v>
       </c>
       <c r="K91" s="11"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="48"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="44"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="51"/>
+      <c r="A92" s="53"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>44</v>
@@ -4951,18 +4955,18 @@
         <v>17</v>
       </c>
       <c r="K92" s="11"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="44"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" s="16" t="s">
         <v>46</v>
@@ -4977,18 +4981,18 @@
         <v>18</v>
       </c>
       <c r="K93" s="11"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="44"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>28</v>
@@ -5003,27 +5007,27 @@
         <v>19</v>
       </c>
       <c r="K94" s="11"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="44"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="51" t="str">
+      <c r="A95" s="53"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46" t="str">
         <f>C88</f>
         <v>DM Review</v>
       </c>
-      <c r="D95" s="51" t="str">
+      <c r="D95" s="46" t="str">
         <f>D88</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E95" s="51" t="str">
+      <c r="E95" s="46" t="str">
         <f>E88</f>
         <v>CM_DEMO</v>
       </c>
       <c r="F95" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>50</v>
@@ -5038,27 +5042,27 @@
         <v>20</v>
       </c>
       <c r="K95" s="11"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="44"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51" t="str">
+      <c r="A96" s="53"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46" t="str">
         <f t="shared" ref="C96:E99" si="19">C95</f>
         <v>DM Review</v>
       </c>
-      <c r="D96" s="51" t="str">
+      <c r="D96" s="46" t="str">
         <f t="shared" si="19"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E96" s="51" t="str">
+      <c r="E96" s="46" t="str">
         <f t="shared" si="19"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F96" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>52</v>
@@ -5073,18 +5077,18 @@
         <v>21</v>
       </c>
       <c r="K96" s="11"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="48"/>
-      <c r="N96" s="48"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="43"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="44"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
       <c r="F97" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>54</v>
@@ -5099,27 +5103,27 @@
         <v>22</v>
       </c>
       <c r="K97" s="11"/>
-      <c r="L97" s="49"/>
-      <c r="M97" s="48"/>
-      <c r="N97" s="48"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="43"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="44"/>
-      <c r="B98" s="51"/>
-      <c r="C98" s="51" t="str">
+      <c r="A98" s="53"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46" t="str">
         <f>C96</f>
         <v>DM Review</v>
       </c>
-      <c r="D98" s="51" t="str">
+      <c r="D98" s="46" t="str">
         <f>D96</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E98" s="51" t="str">
+      <c r="E98" s="46" t="str">
         <f>E96</f>
         <v>CM_DEMO</v>
       </c>
       <c r="F98" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>70</v>
@@ -5134,27 +5138,27 @@
         <v>23</v>
       </c>
       <c r="K98" s="11"/>
-      <c r="L98" s="49"/>
-      <c r="M98" s="48"/>
-      <c r="N98" s="48"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="43"/>
+      <c r="N98" s="43"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="44"/>
-      <c r="B99" s="51"/>
-      <c r="C99" s="51" t="str">
+      <c r="A99" s="53"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46" t="str">
         <f t="shared" si="19"/>
         <v>DM Review</v>
       </c>
-      <c r="D99" s="51" t="str">
+      <c r="D99" s="46" t="str">
         <f t="shared" si="19"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E99" s="51" t="str">
+      <c r="E99" s="46" t="str">
         <f t="shared" si="19"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F99" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>68</v>
@@ -5169,18 +5173,18 @@
         <v>24</v>
       </c>
       <c r="K99" s="11"/>
-      <c r="L99" s="49"/>
-      <c r="M99" s="48"/>
-      <c r="N99" s="48"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="44"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51"/>
-      <c r="E100" s="51"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
       <c r="F100" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>19</v>
@@ -5195,27 +5199,27 @@
         <v>25</v>
       </c>
       <c r="K100" s="11"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="48"/>
-      <c r="N100" s="48"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="43"/>
+      <c r="N100" s="43"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="45"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="51" t="str">
+      <c r="A101" s="54"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46" t="str">
         <f t="shared" ref="C101:E101" si="20">C99</f>
         <v>DM Review</v>
       </c>
-      <c r="D101" s="51" t="str">
+      <c r="D101" s="46" t="str">
         <f t="shared" si="20"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E101" s="51" t="str">
+      <c r="E101" s="46" t="str">
         <f t="shared" si="20"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F101" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>84</v>
@@ -5230,28 +5234,28 @@
         <v>26</v>
       </c>
       <c r="K101" s="11"/>
-      <c r="L101" s="49"/>
-      <c r="M101" s="48"/>
-      <c r="N101" s="48"/>
+      <c r="L101" s="41"/>
+      <c r="M101" s="43"/>
+      <c r="N101" s="43"/>
     </row>
     <row r="102" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="39">
+      <c r="A102" s="44">
         <v>6</v>
       </c>
-      <c r="B102" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="51" t="s">
+      <c r="B102" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C102" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="51" t="s">
+      <c r="D102" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="51" t="s">
-        <v>147</v>
+      <c r="E102" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="F102" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>10</v>
@@ -5266,35 +5270,35 @@
         <v>1</v>
       </c>
       <c r="K102" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L102" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L102" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="M102" s="48" t="s">
+      <c r="M102" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="N102" s="48" t="s">
+      <c r="N102" s="43" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="40"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="51" t="str">
+      <c r="A103" s="45"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46" t="str">
         <f t="shared" ref="C103:E118" si="21">C102</f>
         <v>DM Review</v>
       </c>
-      <c r="D103" s="51" t="str">
+      <c r="D103" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E103" s="51" t="str">
+      <c r="E103" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F103" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>12</v>
@@ -5309,29 +5313,29 @@
         <v>2</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L103" s="49"/>
-      <c r="M103" s="48"/>
-      <c r="N103" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L103" s="41"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
     </row>
     <row r="104" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="40"/>
-      <c r="B104" s="51"/>
-      <c r="C104" s="51" t="str">
+      <c r="A104" s="45"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D104" s="51" t="str">
+      <c r="D104" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E104" s="51" t="str">
+      <c r="E104" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F104" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>14</v>
@@ -5346,29 +5350,29 @@
         <v>3</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L104" s="49"/>
-      <c r="M104" s="48"/>
-      <c r="N104" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L104" s="41"/>
+      <c r="M104" s="43"/>
+      <c r="N104" s="43"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="40"/>
-      <c r="B105" s="51"/>
-      <c r="C105" s="51" t="str">
+      <c r="A105" s="45"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D105" s="51" t="str">
+      <c r="D105" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E105" s="51" t="str">
+      <c r="E105" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F105" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>17</v>
@@ -5383,27 +5387,27 @@
         <v>4</v>
       </c>
       <c r="K105" s="7"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="48"/>
-      <c r="N105" s="48"/>
+      <c r="L105" s="41"/>
+      <c r="M105" s="43"/>
+      <c r="N105" s="43"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="40"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51" t="str">
+      <c r="A106" s="45"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D106" s="51" t="str">
+      <c r="D106" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E106" s="51" t="str">
+      <c r="E106" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F106" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>19</v>
@@ -5418,27 +5422,27 @@
         <v>5</v>
       </c>
       <c r="K106" s="7"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="48"/>
-      <c r="N106" s="48"/>
+      <c r="L106" s="41"/>
+      <c r="M106" s="43"/>
+      <c r="N106" s="43"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="40"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51" t="str">
+      <c r="A107" s="45"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D107" s="51" t="str">
+      <c r="D107" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E107" s="51" t="str">
+      <c r="E107" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
@@ -5451,27 +5455,27 @@
         <v>6</v>
       </c>
       <c r="K107" s="7"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="48"/>
-      <c r="N107" s="48"/>
+      <c r="L107" s="41"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="40"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="51" t="str">
+      <c r="A108" s="45"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D108" s="51" t="str">
+      <c r="D108" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E108" s="51" t="str">
+      <c r="E108" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F108" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
@@ -5484,27 +5488,27 @@
         <v>7</v>
       </c>
       <c r="K108" s="7"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="48"/>
+      <c r="L108" s="41"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="40"/>
-      <c r="B109" s="51"/>
-      <c r="C109" s="51" t="str">
+      <c r="A109" s="45"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D109" s="51" t="str">
+      <c r="D109" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E109" s="51" t="str">
+      <c r="E109" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F109" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
@@ -5517,27 +5521,27 @@
         <v>8</v>
       </c>
       <c r="K109" s="7"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="48"/>
-      <c r="N109" s="48"/>
+      <c r="L109" s="41"/>
+      <c r="M109" s="43"/>
+      <c r="N109" s="43"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="40"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="51" t="str">
+      <c r="A110" s="45"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D110" s="51" t="str">
+      <c r="D110" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E110" s="51" t="str">
+      <c r="E110" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F110" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
@@ -5550,27 +5554,27 @@
         <v>9</v>
       </c>
       <c r="K110" s="7"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="48"/>
-      <c r="N110" s="48"/>
+      <c r="L110" s="41"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="43"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="40"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="51" t="str">
+      <c r="A111" s="45"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D111" s="51" t="str">
+      <c r="D111" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E111" s="51" t="str">
+      <c r="E111" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F111" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
@@ -5585,27 +5589,27 @@
       <c r="K111" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L111" s="49"/>
-      <c r="M111" s="48"/>
-      <c r="N111" s="48"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="43"/>
+      <c r="N111" s="43"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="40"/>
-      <c r="B112" s="51"/>
-      <c r="C112" s="51" t="str">
+      <c r="A112" s="45"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D112" s="51" t="str">
+      <c r="D112" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E112" s="51" t="str">
+      <c r="E112" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F112" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>30</v>
@@ -5620,27 +5624,27 @@
         <v>11</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="49"/>
-      <c r="M112" s="48"/>
-      <c r="N112" s="48"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="43"/>
+      <c r="N112" s="43"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="40"/>
-      <c r="B113" s="51"/>
-      <c r="C113" s="51" t="str">
+      <c r="A113" s="45"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D113" s="51" t="str">
+      <c r="D113" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E113" s="51" t="str">
+      <c r="E113" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F113" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>32</v>
@@ -5655,27 +5659,27 @@
         <v>12</v>
       </c>
       <c r="K113" s="11"/>
-      <c r="L113" s="49"/>
-      <c r="M113" s="48"/>
-      <c r="N113" s="48"/>
+      <c r="L113" s="41"/>
+      <c r="M113" s="43"/>
+      <c r="N113" s="43"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="40"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="51" t="str">
+      <c r="A114" s="45"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D114" s="51" t="str">
+      <c r="D114" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E114" s="51" t="str">
+      <c r="E114" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F114" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G114" s="16" t="s">
         <v>89</v>
@@ -5690,27 +5694,27 @@
         <v>13</v>
       </c>
       <c r="K114" s="11"/>
-      <c r="L114" s="49"/>
-      <c r="M114" s="48"/>
-      <c r="N114" s="48"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="43"/>
+      <c r="N114" s="43"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="40"/>
-      <c r="B115" s="51"/>
-      <c r="C115" s="51" t="str">
+      <c r="A115" s="45"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D115" s="51" t="str">
+      <c r="D115" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E115" s="51" t="str">
+      <c r="E115" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F115" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>91</v>
@@ -5725,27 +5729,27 @@
         <v>14</v>
       </c>
       <c r="K115" s="11"/>
-      <c r="L115" s="49"/>
-      <c r="M115" s="48"/>
-      <c r="N115" s="48"/>
+      <c r="L115" s="41"/>
+      <c r="M115" s="43"/>
+      <c r="N115" s="43"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="40"/>
-      <c r="B116" s="51"/>
-      <c r="C116" s="51" t="str">
+      <c r="A116" s="45"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D116" s="51" t="str">
+      <c r="D116" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E116" s="51" t="str">
+      <c r="E116" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F116" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>93</v>
@@ -5760,27 +5764,27 @@
         <v>15</v>
       </c>
       <c r="K116" s="11"/>
-      <c r="L116" s="49"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="40"/>
-      <c r="B117" s="51"/>
-      <c r="C117" s="51" t="str">
+      <c r="A117" s="45"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D117" s="51" t="str">
+      <c r="D117" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E117" s="51" t="str">
+      <c r="E117" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F117" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G117" s="16" t="s">
         <v>95</v>
@@ -5795,27 +5799,27 @@
         <v>16</v>
       </c>
       <c r="K117" s="11"/>
-      <c r="L117" s="49"/>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
+      <c r="L117" s="41"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="40"/>
-      <c r="B118" s="51"/>
-      <c r="C118" s="51" t="str">
+      <c r="A118" s="45"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D118" s="51" t="str">
+      <c r="D118" s="46" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E118" s="51" t="str">
+      <c r="E118" s="46" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F118" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G118" s="16" t="s">
         <v>97</v>
@@ -5830,27 +5834,27 @@
         <v>17</v>
       </c>
       <c r="K118" s="11"/>
-      <c r="L118" s="49"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
+      <c r="L118" s="41"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="40"/>
-      <c r="B119" s="51"/>
-      <c r="C119" s="51" t="str">
+      <c r="A119" s="45"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="46" t="str">
         <f t="shared" ref="C119:E124" si="22">C118</f>
         <v>DM Review</v>
       </c>
-      <c r="D119" s="51" t="str">
+      <c r="D119" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E119" s="51" t="str">
+      <c r="E119" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F119" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>34</v>
@@ -5865,27 +5869,27 @@
         <v>18</v>
       </c>
       <c r="K119" s="11"/>
-      <c r="L119" s="49"/>
-      <c r="M119" s="48"/>
-      <c r="N119" s="48"/>
+      <c r="L119" s="41"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="40"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51" t="str">
+      <c r="A120" s="45"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D120" s="51" t="str">
+      <c r="D120" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E120" s="51" t="str">
+      <c r="E120" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F120" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>36</v>
@@ -5900,27 +5904,27 @@
         <v>19</v>
       </c>
       <c r="K120" s="11"/>
-      <c r="L120" s="49"/>
-      <c r="M120" s="48"/>
-      <c r="N120" s="48"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="43"/>
+      <c r="N120" s="43"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="40"/>
-      <c r="B121" s="51"/>
-      <c r="C121" s="51" t="str">
+      <c r="A121" s="45"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D121" s="51" t="str">
+      <c r="D121" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E121" s="51" t="str">
+      <c r="E121" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F121" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>28</v>
@@ -5935,27 +5939,27 @@
         <v>20</v>
       </c>
       <c r="K121" s="11"/>
-      <c r="L121" s="49"/>
-      <c r="M121" s="48"/>
-      <c r="N121" s="48"/>
+      <c r="L121" s="41"/>
+      <c r="M121" s="43"/>
+      <c r="N121" s="43"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="40"/>
-      <c r="B122" s="51"/>
-      <c r="C122" s="51" t="str">
+      <c r="A122" s="45"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D122" s="51" t="str">
+      <c r="D122" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E122" s="51" t="str">
+      <c r="E122" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F122" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>100</v>
@@ -5970,27 +5974,27 @@
         <v>21</v>
       </c>
       <c r="K122" s="11"/>
-      <c r="L122" s="49"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="40"/>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51" t="str">
+      <c r="A123" s="45"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D123" s="51" t="str">
+      <c r="D123" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E123" s="51" t="str">
+      <c r="E123" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F123" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>102</v>
@@ -6005,30 +6009,30 @@
         <v>22</v>
       </c>
       <c r="K123" s="11"/>
-      <c r="L123" s="49"/>
-      <c r="M123" s="48"/>
-      <c r="N123" s="48"/>
+      <c r="L123" s="41"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="43"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="41"/>
-      <c r="B124" s="51"/>
-      <c r="C124" s="51" t="str">
+      <c r="A124" s="56"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="46" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D124" s="51" t="str">
+      <c r="D124" s="46" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E124" s="51" t="str">
+      <c r="E124" s="46" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F124" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="H124" s="9" t="s">
         <v>104</v>
@@ -6040,28 +6044,28 @@
         <v>23</v>
       </c>
       <c r="K124" s="11"/>
-      <c r="L124" s="49"/>
-      <c r="M124" s="48"/>
-      <c r="N124" s="48"/>
+      <c r="L124" s="41"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="43"/>
     </row>
     <row r="125" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="39">
+      <c r="A125" s="44">
         <v>7</v>
       </c>
-      <c r="B125" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C125" s="48" t="s">
+      <c r="B125" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C125" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D125" s="48" t="s">
+      <c r="D125" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E125" s="48" t="s">
-        <v>147</v>
+      <c r="E125" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="F125" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>10</v>
@@ -6076,35 +6080,35 @@
         <v>1</v>
       </c>
       <c r="K125" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L125" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L125" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="M125" s="48" t="s">
+      <c r="M125" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="N125" s="48" t="s">
-        <v>154</v>
+      <c r="N125" s="43" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="40"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48" t="str">
+      <c r="A126" s="45"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43" t="str">
         <f t="shared" ref="C126:E140" si="23">C125</f>
         <v>DM Review</v>
       </c>
-      <c r="D126" s="48" t="str">
+      <c r="D126" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E126" s="48" t="str">
+      <c r="E126" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>12</v>
@@ -6119,29 +6123,29 @@
         <v>2</v>
       </c>
       <c r="K126" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L126" s="49"/>
-      <c r="M126" s="48"/>
-      <c r="N126" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L126" s="41"/>
+      <c r="M126" s="43"/>
+      <c r="N126" s="43"/>
     </row>
     <row r="127" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="40"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48" t="str">
+      <c r="A127" s="45"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D127" s="48" t="str">
+      <c r="D127" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E127" s="48" t="str">
+      <c r="E127" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F127" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>14</v>
@@ -6156,29 +6160,29 @@
         <v>3</v>
       </c>
       <c r="K127" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L127" s="49"/>
-      <c r="M127" s="48"/>
-      <c r="N127" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L127" s="41"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="40"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48" t="str">
+      <c r="A128" s="45"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D128" s="48" t="str">
+      <c r="D128" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E128" s="48" t="str">
+      <c r="E128" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F128" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>17</v>
@@ -6193,27 +6197,27 @@
         <v>4</v>
       </c>
       <c r="K128" s="17"/>
-      <c r="L128" s="49"/>
-      <c r="M128" s="48"/>
-      <c r="N128" s="48"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="40"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48" t="str">
+      <c r="A129" s="45"/>
+      <c r="B129" s="43"/>
+      <c r="C129" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D129" s="48" t="str">
+      <c r="D129" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E129" s="48" t="str">
+      <c r="E129" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F129" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>19</v>
@@ -6228,27 +6232,27 @@
         <v>5</v>
       </c>
       <c r="K129" s="17"/>
-      <c r="L129" s="49"/>
-      <c r="M129" s="48"/>
-      <c r="N129" s="48"/>
+      <c r="L129" s="41"/>
+      <c r="M129" s="43"/>
+      <c r="N129" s="43"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="40"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48" t="str">
+      <c r="A130" s="45"/>
+      <c r="B130" s="43"/>
+      <c r="C130" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D130" s="48" t="str">
+      <c r="D130" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E130" s="48" t="str">
+      <c r="E130" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F130" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
@@ -6261,27 +6265,27 @@
         <v>6</v>
       </c>
       <c r="K130" s="17"/>
-      <c r="L130" s="49"/>
-      <c r="M130" s="48"/>
-      <c r="N130" s="48"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="43"/>
+      <c r="N130" s="43"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="40"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48" t="str">
+      <c r="A131" s="45"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D131" s="48" t="str">
+      <c r="D131" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E131" s="48" t="str">
+      <c r="E131" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F131" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
@@ -6294,27 +6298,27 @@
         <v>7</v>
       </c>
       <c r="K131" s="17"/>
-      <c r="L131" s="49"/>
-      <c r="M131" s="48"/>
-      <c r="N131" s="48"/>
+      <c r="L131" s="41"/>
+      <c r="M131" s="43"/>
+      <c r="N131" s="43"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="40"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48" t="str">
+      <c r="A132" s="45"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D132" s="48" t="str">
+      <c r="D132" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E132" s="48" t="str">
+      <c r="E132" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F132" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
@@ -6327,27 +6331,27 @@
         <v>8</v>
       </c>
       <c r="K132" s="17"/>
-      <c r="L132" s="49"/>
-      <c r="M132" s="48"/>
-      <c r="N132" s="48"/>
+      <c r="L132" s="41"/>
+      <c r="M132" s="43"/>
+      <c r="N132" s="43"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="40"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48" t="str">
+      <c r="A133" s="45"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D133" s="48" t="str">
+      <c r="D133" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E133" s="48" t="str">
+      <c r="E133" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F133" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5" t="s">
@@ -6360,27 +6364,27 @@
         <v>9</v>
       </c>
       <c r="K133" s="17"/>
-      <c r="L133" s="49"/>
-      <c r="M133" s="48"/>
-      <c r="N133" s="48"/>
+      <c r="L133" s="41"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
     </row>
     <row r="134" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A134" s="40"/>
-      <c r="B134" s="48"/>
-      <c r="C134" s="48" t="str">
+      <c r="A134" s="45"/>
+      <c r="B134" s="43"/>
+      <c r="C134" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D134" s="48" t="str">
+      <c r="D134" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E134" s="48" t="str">
+      <c r="E134" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F134" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
@@ -6395,27 +6399,27 @@
       <c r="K134" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L134" s="49"/>
-      <c r="M134" s="48"/>
-      <c r="N134" s="48"/>
+      <c r="L134" s="41"/>
+      <c r="M134" s="43"/>
+      <c r="N134" s="43"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="40"/>
-      <c r="B135" s="48"/>
-      <c r="C135" s="48" t="str">
+      <c r="A135" s="45"/>
+      <c r="B135" s="43"/>
+      <c r="C135" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D135" s="48" t="str">
+      <c r="D135" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E135" s="48" t="str">
+      <c r="E135" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F135" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>30</v>
@@ -6430,27 +6434,27 @@
         <v>11</v>
       </c>
       <c r="K135" s="18"/>
-      <c r="L135" s="49"/>
-      <c r="M135" s="48"/>
-      <c r="N135" s="48"/>
+      <c r="L135" s="41"/>
+      <c r="M135" s="43"/>
+      <c r="N135" s="43"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="40"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="48" t="str">
+      <c r="A136" s="45"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D136" s="48" t="str">
+      <c r="D136" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E136" s="48" t="str">
+      <c r="E136" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F136" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>32</v>
@@ -6465,27 +6469,27 @@
         <v>12</v>
       </c>
       <c r="K136" s="18"/>
-      <c r="L136" s="49"/>
-      <c r="M136" s="48"/>
-      <c r="N136" s="48"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="40"/>
-      <c r="B137" s="48"/>
-      <c r="C137" s="48" t="str">
+      <c r="A137" s="45"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D137" s="48" t="str">
+      <c r="D137" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E137" s="48" t="str">
+      <c r="E137" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F137" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>108</v>
@@ -6500,27 +6504,27 @@
         <v>13</v>
       </c>
       <c r="K137" s="18"/>
-      <c r="L137" s="49"/>
-      <c r="M137" s="48"/>
-      <c r="N137" s="48"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="43"/>
+      <c r="N137" s="43"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="40"/>
-      <c r="B138" s="48"/>
-      <c r="C138" s="48" t="str">
+      <c r="A138" s="45"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D138" s="48" t="str">
+      <c r="D138" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E138" s="48" t="str">
+      <c r="E138" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F138" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>34</v>
@@ -6535,27 +6539,27 @@
         <v>14</v>
       </c>
       <c r="K138" s="18"/>
-      <c r="L138" s="49"/>
-      <c r="M138" s="48"/>
-      <c r="N138" s="48"/>
+      <c r="L138" s="41"/>
+      <c r="M138" s="43"/>
+      <c r="N138" s="43"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="40"/>
-      <c r="B139" s="48"/>
-      <c r="C139" s="48" t="str">
+      <c r="A139" s="45"/>
+      <c r="B139" s="43"/>
+      <c r="C139" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D139" s="48" t="str">
+      <c r="D139" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E139" s="48" t="str">
+      <c r="E139" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>36</v>
@@ -6570,27 +6574,27 @@
         <v>15</v>
       </c>
       <c r="K139" s="18"/>
-      <c r="L139" s="49"/>
-      <c r="M139" s="48"/>
-      <c r="N139" s="48"/>
+      <c r="L139" s="41"/>
+      <c r="M139" s="43"/>
+      <c r="N139" s="43"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="40"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="48" t="str">
+      <c r="A140" s="45"/>
+      <c r="B140" s="43"/>
+      <c r="C140" s="43" t="str">
         <f t="shared" si="23"/>
         <v>DM Review</v>
       </c>
-      <c r="D140" s="48" t="str">
+      <c r="D140" s="43" t="str">
         <f t="shared" si="23"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E140" s="48" t="str">
+      <c r="E140" s="43" t="str">
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F140" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>28</v>
@@ -6605,28 +6609,28 @@
         <v>16</v>
       </c>
       <c r="K140" s="18"/>
-      <c r="L140" s="49"/>
-      <c r="M140" s="48"/>
-      <c r="N140" s="48"/>
+      <c r="L140" s="41"/>
+      <c r="M140" s="43"/>
+      <c r="N140" s="43"/>
     </row>
     <row r="141" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="39">
+      <c r="A141" s="44">
         <v>8</v>
       </c>
-      <c r="B141" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C141" s="48" t="s">
+      <c r="B141" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D141" s="48" t="s">
+      <c r="D141" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="48" t="s">
-        <v>148</v>
+      <c r="E141" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="F141" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>10</v>
@@ -6641,35 +6645,35 @@
         <v>1</v>
       </c>
       <c r="K141" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L141" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L141" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="M141" s="50" t="s">
+      <c r="M141" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="N141" s="48" t="s">
+      <c r="N141" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="40"/>
-      <c r="B142" s="49"/>
-      <c r="C142" s="48" t="str">
+      <c r="A142" s="45"/>
+      <c r="B142" s="41"/>
+      <c r="C142" s="43" t="str">
         <f t="shared" ref="C142:E157" si="24">C141</f>
         <v>DM Review</v>
       </c>
-      <c r="D142" s="48" t="str">
+      <c r="D142" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E142" s="48" t="str">
+      <c r="E142" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F142" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>12</v>
@@ -6684,29 +6688,29 @@
         <v>2</v>
       </c>
       <c r="K142" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L142" s="49"/>
-      <c r="M142" s="48"/>
-      <c r="N142" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L142" s="41"/>
+      <c r="M142" s="43"/>
+      <c r="N142" s="43"/>
     </row>
     <row r="143" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="40"/>
-      <c r="B143" s="49"/>
-      <c r="C143" s="48" t="str">
+      <c r="A143" s="45"/>
+      <c r="B143" s="41"/>
+      <c r="C143" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D143" s="48" t="str">
+      <c r="D143" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E143" s="48" t="str">
+      <c r="E143" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F143" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>14</v>
@@ -6721,29 +6725,29 @@
         <v>3</v>
       </c>
       <c r="K143" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L143" s="49"/>
-      <c r="M143" s="48"/>
-      <c r="N143" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L143" s="41"/>
+      <c r="M143" s="43"/>
+      <c r="N143" s="43"/>
     </row>
     <row r="144" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="40"/>
-      <c r="B144" s="49"/>
-      <c r="C144" s="48" t="str">
+      <c r="A144" s="45"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D144" s="48" t="str">
+      <c r="D144" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E144" s="48" t="str">
+      <c r="E144" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F144" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>17</v>
@@ -6758,27 +6762,27 @@
         <v>4</v>
       </c>
       <c r="K144" s="7"/>
-      <c r="L144" s="49"/>
-      <c r="M144" s="48"/>
-      <c r="N144" s="48"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="43"/>
+      <c r="N144" s="43"/>
     </row>
     <row r="145" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="40"/>
-      <c r="B145" s="49"/>
-      <c r="C145" s="48" t="str">
+      <c r="A145" s="45"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D145" s="48" t="str">
+      <c r="D145" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E145" s="48" t="str">
+      <c r="E145" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F145" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>19</v>
@@ -6793,27 +6797,27 @@
         <v>5</v>
       </c>
       <c r="K145" s="7"/>
-      <c r="L145" s="49"/>
-      <c r="M145" s="48"/>
-      <c r="N145" s="48"/>
+      <c r="L145" s="41"/>
+      <c r="M145" s="43"/>
+      <c r="N145" s="43"/>
     </row>
     <row r="146" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="40"/>
-      <c r="B146" s="49"/>
-      <c r="C146" s="48" t="str">
+      <c r="A146" s="45"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D146" s="48" t="str">
+      <c r="D146" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E146" s="48" t="str">
+      <c r="E146" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F146" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
@@ -6826,27 +6830,27 @@
         <v>6</v>
       </c>
       <c r="K146" s="7"/>
-      <c r="L146" s="49"/>
-      <c r="M146" s="48"/>
-      <c r="N146" s="48"/>
+      <c r="L146" s="41"/>
+      <c r="M146" s="43"/>
+      <c r="N146" s="43"/>
     </row>
     <row r="147" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="40"/>
-      <c r="B147" s="49"/>
-      <c r="C147" s="48" t="str">
+      <c r="A147" s="45"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D147" s="48" t="str">
+      <c r="D147" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E147" s="48" t="str">
+      <c r="E147" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F147" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7" t="s">
@@ -6859,27 +6863,27 @@
         <v>7</v>
       </c>
       <c r="K147" s="7"/>
-      <c r="L147" s="49"/>
-      <c r="M147" s="48"/>
-      <c r="N147" s="48"/>
+      <c r="L147" s="41"/>
+      <c r="M147" s="43"/>
+      <c r="N147" s="43"/>
     </row>
     <row r="148" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="40"/>
-      <c r="B148" s="49"/>
-      <c r="C148" s="48" t="str">
+      <c r="A148" s="45"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D148" s="48" t="str">
+      <c r="D148" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E148" s="48" t="str">
+      <c r="E148" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F148" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7" t="s">
@@ -6892,27 +6896,27 @@
         <v>8</v>
       </c>
       <c r="K148" s="7"/>
-      <c r="L148" s="49"/>
-      <c r="M148" s="48"/>
-      <c r="N148" s="48"/>
+      <c r="L148" s="41"/>
+      <c r="M148" s="43"/>
+      <c r="N148" s="43"/>
     </row>
     <row r="149" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="40"/>
-      <c r="B149" s="49"/>
-      <c r="C149" s="48" t="str">
+      <c r="A149" s="45"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D149" s="48" t="str">
+      <c r="D149" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E149" s="48" t="str">
+      <c r="E149" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F149" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
@@ -6925,27 +6929,27 @@
         <v>9</v>
       </c>
       <c r="K149" s="7"/>
-      <c r="L149" s="49"/>
-      <c r="M149" s="48"/>
-      <c r="N149" s="48"/>
+      <c r="L149" s="41"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="43"/>
     </row>
     <row r="150" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="40"/>
-      <c r="B150" s="49"/>
-      <c r="C150" s="48" t="str">
+      <c r="A150" s="45"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D150" s="48" t="str">
+      <c r="D150" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E150" s="48" t="str">
+      <c r="E150" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F150" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
@@ -6960,27 +6964,27 @@
       <c r="K150" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L150" s="49"/>
-      <c r="M150" s="48"/>
-      <c r="N150" s="48"/>
+      <c r="L150" s="41"/>
+      <c r="M150" s="43"/>
+      <c r="N150" s="43"/>
     </row>
     <row r="151" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="40"/>
-      <c r="B151" s="49"/>
-      <c r="C151" s="48" t="str">
+      <c r="A151" s="45"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D151" s="48" t="str">
+      <c r="D151" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E151" s="48" t="str">
+      <c r="E151" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F151" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>100</v>
@@ -6995,27 +6999,27 @@
         <v>11</v>
       </c>
       <c r="K151" s="11"/>
-      <c r="L151" s="49"/>
-      <c r="M151" s="48"/>
-      <c r="N151" s="48"/>
+      <c r="L151" s="41"/>
+      <c r="M151" s="43"/>
+      <c r="N151" s="43"/>
     </row>
     <row r="152" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="40"/>
-      <c r="B152" s="49"/>
-      <c r="C152" s="48" t="str">
+      <c r="A152" s="45"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D152" s="48" t="str">
+      <c r="D152" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E152" s="48" t="str">
+      <c r="E152" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F152" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>102</v>
@@ -7030,27 +7034,27 @@
         <v>12</v>
       </c>
       <c r="K152" s="11"/>
-      <c r="L152" s="49"/>
-      <c r="M152" s="48"/>
-      <c r="N152" s="48"/>
+      <c r="L152" s="41"/>
+      <c r="M152" s="43"/>
+      <c r="N152" s="43"/>
     </row>
     <row r="153" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="40"/>
-      <c r="B153" s="49"/>
-      <c r="C153" s="48" t="str">
+      <c r="A153" s="45"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D153" s="48" t="str">
+      <c r="D153" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E153" s="48" t="str">
+      <c r="E153" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F153" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>114</v>
@@ -7065,27 +7069,27 @@
         <v>13</v>
       </c>
       <c r="K153" s="11"/>
-      <c r="L153" s="49"/>
-      <c r="M153" s="48"/>
-      <c r="N153" s="48"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
     </row>
     <row r="154" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="40"/>
-      <c r="B154" s="49"/>
-      <c r="C154" s="48" t="str">
+      <c r="A154" s="45"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D154" s="48" t="str">
+      <c r="D154" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E154" s="48" t="str">
+      <c r="E154" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F154" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>116</v>
@@ -7100,27 +7104,27 @@
         <v>14</v>
       </c>
       <c r="K154" s="11"/>
-      <c r="L154" s="49"/>
-      <c r="M154" s="48"/>
-      <c r="N154" s="48"/>
+      <c r="L154" s="41"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="43"/>
     </row>
     <row r="155" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="40"/>
-      <c r="B155" s="49"/>
-      <c r="C155" s="48" t="str">
+      <c r="A155" s="45"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D155" s="48" t="str">
+      <c r="D155" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E155" s="48" t="str">
+      <c r="E155" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F155" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>118</v>
@@ -7135,27 +7139,27 @@
         <v>15</v>
       </c>
       <c r="K155" s="11"/>
-      <c r="L155" s="49"/>
-      <c r="M155" s="48"/>
-      <c r="N155" s="48"/>
+      <c r="L155" s="41"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="43"/>
     </row>
     <row r="156" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="40"/>
-      <c r="B156" s="49"/>
-      <c r="C156" s="48" t="str">
+      <c r="A156" s="45"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D156" s="48" t="str">
+      <c r="D156" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E156" s="48" t="str">
+      <c r="E156" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F156" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>84</v>
@@ -7170,27 +7174,27 @@
         <v>16</v>
       </c>
       <c r="K156" s="11"/>
-      <c r="L156" s="49"/>
-      <c r="M156" s="48"/>
-      <c r="N156" s="48"/>
+      <c r="L156" s="41"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="43"/>
     </row>
     <row r="157" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="40"/>
-      <c r="B157" s="49"/>
-      <c r="C157" s="48" t="str">
+      <c r="A157" s="45"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
       </c>
-      <c r="D157" s="48" t="str">
+      <c r="D157" s="43" t="str">
         <f t="shared" si="24"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E157" s="48" t="str">
+      <c r="E157" s="43" t="str">
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F157" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>121</v>
@@ -7205,27 +7209,27 @@
         <v>17</v>
       </c>
       <c r="K157" s="11"/>
-      <c r="L157" s="49"/>
-      <c r="M157" s="48"/>
-      <c r="N157" s="48"/>
+      <c r="L157" s="41"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="43"/>
     </row>
     <row r="158" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="41"/>
-      <c r="B158" s="49"/>
-      <c r="C158" s="48" t="str">
+      <c r="A158" s="56"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="43" t="str">
         <f t="shared" ref="C158:E158" si="25">C157</f>
         <v>DM Review</v>
       </c>
-      <c r="D158" s="48" t="str">
+      <c r="D158" s="43" t="str">
         <f t="shared" si="25"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E158" s="48" t="str">
+      <c r="E158" s="43" t="str">
         <f t="shared" si="25"/>
         <v>AE_DEMO</v>
       </c>
       <c r="F158" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>118</v>
@@ -7240,28 +7244,28 @@
         <v>18</v>
       </c>
       <c r="K158" s="11"/>
-      <c r="L158" s="49"/>
-      <c r="M158" s="48"/>
-      <c r="N158" s="48"/>
+      <c r="L158" s="41"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="43"/>
     </row>
     <row r="159" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="39">
+      <c r="A159" s="44">
         <v>9</v>
       </c>
-      <c r="B159" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C159" s="48" t="s">
+      <c r="B159" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C159" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="48" t="s">
+      <c r="D159" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E159" s="48" t="s">
-        <v>148</v>
+      <c r="E159" s="43" t="s">
+        <v>147</v>
       </c>
       <c r="F159" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>10</v>
@@ -7276,26 +7280,26 @@
         <v>1</v>
       </c>
       <c r="K159" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L159" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L159" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="M159" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="M159" s="48" t="s">
+      <c r="N159" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="N159" s="48" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="160" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="40"/>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
+      <c r="A160" s="45"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
       <c r="F160" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>12</v>
@@ -7310,20 +7314,20 @@
         <v>2</v>
       </c>
       <c r="K160" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L160" s="49"/>
-      <c r="M160" s="48"/>
-      <c r="N160" s="48"/>
+        <v>143</v>
+      </c>
+      <c r="L160" s="41"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="43"/>
     </row>
     <row r="161" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="40"/>
-      <c r="B161" s="48"/>
-      <c r="C161" s="48"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="48"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
       <c r="F161" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>14</v>
@@ -7338,20 +7342,20 @@
         <v>3</v>
       </c>
       <c r="K161" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L161" s="49"/>
-      <c r="M161" s="48"/>
-      <c r="N161" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="L161" s="41"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="43"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="40"/>
-      <c r="B162" s="48"/>
-      <c r="C162" s="48"/>
-      <c r="D162" s="48"/>
-      <c r="E162" s="48"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
       <c r="F162" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>17</v>
@@ -7366,18 +7370,18 @@
         <v>4</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="49"/>
-      <c r="M162" s="48"/>
-      <c r="N162" s="48"/>
+      <c r="L162" s="41"/>
+      <c r="M162" s="43"/>
+      <c r="N162" s="43"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="40"/>
-      <c r="B163" s="48"/>
-      <c r="C163" s="48"/>
-      <c r="D163" s="48"/>
-      <c r="E163" s="48"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
       <c r="F163" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>19</v>
@@ -7392,18 +7396,18 @@
         <v>5</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="49"/>
-      <c r="M163" s="48"/>
-      <c r="N163" s="48"/>
+      <c r="L163" s="41"/>
+      <c r="M163" s="43"/>
+      <c r="N163" s="43"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="40"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="48"/>
-      <c r="E164" s="48"/>
+      <c r="A164" s="45"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
       <c r="F164" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5" t="s">
@@ -7416,18 +7420,18 @@
         <v>6</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="49"/>
-      <c r="M164" s="48"/>
-      <c r="N164" s="48"/>
+      <c r="L164" s="41"/>
+      <c r="M164" s="43"/>
+      <c r="N164" s="43"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="40"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
+      <c r="A165" s="45"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
       <c r="F165" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
@@ -7440,18 +7444,18 @@
         <v>7</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="49"/>
-      <c r="M165" s="48"/>
-      <c r="N165" s="48"/>
+      <c r="L165" s="41"/>
+      <c r="M165" s="43"/>
+      <c r="N165" s="43"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="40"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="48"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
       <c r="F166" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5" t="s">
@@ -7464,18 +7468,18 @@
         <v>8</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="49"/>
-      <c r="M166" s="48"/>
-      <c r="N166" s="48"/>
+      <c r="L166" s="41"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="43"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="40"/>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="48"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="43"/>
       <c r="F167" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
@@ -7488,18 +7492,18 @@
         <v>9</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="49"/>
-      <c r="M167" s="48"/>
-      <c r="N167" s="48"/>
+      <c r="L167" s="41"/>
+      <c r="M167" s="43"/>
+      <c r="N167" s="43"/>
     </row>
     <row r="168" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A168" s="40"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="48"/>
+      <c r="A168" s="45"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
       <c r="F168" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
@@ -7514,18 +7518,18 @@
       <c r="K168" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L168" s="49"/>
-      <c r="M168" s="48"/>
-      <c r="N168" s="48"/>
+      <c r="L168" s="41"/>
+      <c r="M168" s="43"/>
+      <c r="N168" s="43"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="40"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="48"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
       <c r="F169" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G169" s="9" t="s">
         <v>100</v>
@@ -7534,24 +7538,24 @@
         <v>100</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J169" s="10">
         <v>11</v>
       </c>
       <c r="K169" s="9"/>
-      <c r="L169" s="49"/>
-      <c r="M169" s="48"/>
-      <c r="N169" s="48"/>
+      <c r="L169" s="41"/>
+      <c r="M169" s="43"/>
+      <c r="N169" s="43"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="40"/>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="48"/>
+      <c r="A170" s="45"/>
+      <c r="B170" s="43"/>
+      <c r="C170" s="43"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="43"/>
       <c r="F170" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G170" s="9" t="s">
         <v>102</v>
@@ -7566,24 +7570,24 @@
         <v>12</v>
       </c>
       <c r="K170" s="9"/>
-      <c r="L170" s="49"/>
-      <c r="M170" s="48"/>
-      <c r="N170" s="48"/>
+      <c r="L170" s="41"/>
+      <c r="M170" s="43"/>
+      <c r="N170" s="43"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="40"/>
-      <c r="B171" s="48"/>
-      <c r="C171" s="48"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="48"/>
+      <c r="A171" s="45"/>
+      <c r="B171" s="43"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
       <c r="F171" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>104</v>
+        <v>189</v>
+      </c>
+      <c r="H171" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="I171" s="9" t="s">
         <v>37</v>
@@ -7592,44 +7596,44 @@
         <v>13</v>
       </c>
       <c r="K171" s="9"/>
-      <c r="L171" s="49"/>
-      <c r="M171" s="48"/>
-      <c r="N171" s="48"/>
+      <c r="L171" s="41"/>
+      <c r="M171" s="43"/>
+      <c r="N171" s="43"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="40"/>
-      <c r="B172" s="48"/>
-      <c r="C172" s="48"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="48"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="43"/>
       <c r="F172" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G172" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H172" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I172" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="J172" s="10">
         <v>14</v>
       </c>
       <c r="K172" s="9"/>
-      <c r="L172" s="49"/>
-      <c r="M172" s="48"/>
-      <c r="N172" s="48"/>
+      <c r="L172" s="41"/>
+      <c r="M172" s="43"/>
+      <c r="N172" s="43"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="40"/>
-      <c r="B173" s="48"/>
-      <c r="C173" s="48"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="48"/>
+      <c r="A173" s="45"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
       <c r="F173" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G173" s="9" t="s">
         <v>30</v>
@@ -7644,18 +7648,18 @@
         <v>16</v>
       </c>
       <c r="K173" s="9"/>
-      <c r="L173" s="49"/>
-      <c r="M173" s="48"/>
-      <c r="N173" s="48"/>
+      <c r="L173" s="41"/>
+      <c r="M173" s="43"/>
+      <c r="N173" s="43"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="40"/>
-      <c r="B174" s="48"/>
-      <c r="C174" s="48"/>
-      <c r="D174" s="48"/>
-      <c r="E174" s="48"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="43"/>
       <c r="F174" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G174" s="9" t="s">
         <v>32</v>
@@ -7670,18 +7674,18 @@
         <v>17</v>
       </c>
       <c r="K174" s="9"/>
-      <c r="L174" s="49"/>
-      <c r="M174" s="48"/>
-      <c r="N174" s="48"/>
+      <c r="L174" s="41"/>
+      <c r="M174" s="43"/>
+      <c r="N174" s="43"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="40"/>
-      <c r="B175" s="48"/>
-      <c r="C175" s="48"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="48"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="43"/>
+      <c r="C175" s="43"/>
+      <c r="D175" s="43"/>
+      <c r="E175" s="43"/>
       <c r="F175" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G175" s="9" t="s">
         <v>34</v>
@@ -7696,18 +7700,18 @@
         <v>18</v>
       </c>
       <c r="K175" s="9"/>
-      <c r="L175" s="49"/>
-      <c r="M175" s="48"/>
-      <c r="N175" s="48"/>
+      <c r="L175" s="41"/>
+      <c r="M175" s="43"/>
+      <c r="N175" s="43"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="40"/>
-      <c r="B176" s="48"/>
-      <c r="C176" s="48"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="48"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="43"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
       <c r="F176" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G176" s="9" t="s">
         <v>89</v>
@@ -7722,18 +7726,18 @@
         <v>19</v>
       </c>
       <c r="K176" s="9"/>
-      <c r="L176" s="49"/>
-      <c r="M176" s="48"/>
-      <c r="N176" s="48"/>
+      <c r="L176" s="41"/>
+      <c r="M176" s="43"/>
+      <c r="N176" s="43"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="40"/>
-      <c r="B177" s="48"/>
-      <c r="C177" s="48"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
       <c r="F177" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G177" s="9" t="s">
         <v>91</v>
@@ -7748,18 +7752,18 @@
         <v>20</v>
       </c>
       <c r="K177" s="9"/>
-      <c r="L177" s="49"/>
-      <c r="M177" s="48"/>
-      <c r="N177" s="48"/>
+      <c r="L177" s="41"/>
+      <c r="M177" s="43"/>
+      <c r="N177" s="43"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="40"/>
-      <c r="B178" s="48"/>
-      <c r="C178" s="48"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="48"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="43"/>
       <c r="F178" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G178" s="9" t="s">
         <v>93</v>
@@ -7774,18 +7778,18 @@
         <v>21</v>
       </c>
       <c r="K178" s="9"/>
-      <c r="L178" s="49"/>
-      <c r="M178" s="48"/>
-      <c r="N178" s="48"/>
+      <c r="L178" s="41"/>
+      <c r="M178" s="43"/>
+      <c r="N178" s="43"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="40"/>
-      <c r="B179" s="48"/>
-      <c r="C179" s="48"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="48"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
       <c r="F179" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>95</v>
@@ -7800,18 +7804,18 @@
         <v>22</v>
       </c>
       <c r="K179" s="9"/>
-      <c r="L179" s="49"/>
-      <c r="M179" s="48"/>
-      <c r="N179" s="48"/>
+      <c r="L179" s="41"/>
+      <c r="M179" s="43"/>
+      <c r="N179" s="43"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="41"/>
-      <c r="B180" s="48"/>
-      <c r="C180" s="48"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="48"/>
+      <c r="A180" s="56"/>
+      <c r="B180" s="43"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="43"/>
+      <c r="E180" s="43"/>
       <c r="F180" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G180" s="9" t="s">
         <v>97</v>
@@ -7826,28 +7830,28 @@
         <v>23</v>
       </c>
       <c r="K180" s="9"/>
-      <c r="L180" s="49"/>
-      <c r="M180" s="48"/>
-      <c r="N180" s="48"/>
+      <c r="L180" s="41"/>
+      <c r="M180" s="43"/>
+      <c r="N180" s="43"/>
     </row>
     <row r="181" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="39">
+      <c r="A181" s="44">
         <v>10</v>
       </c>
-      <c r="B181" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C181" s="47" t="s">
+      <c r="B181" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C181" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="47" t="s">
+      <c r="D181" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E181" s="47" t="s">
-        <v>147</v>
+      <c r="E181" s="58" t="s">
+        <v>146</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G181" s="22" t="s">
         <v>10</v>
@@ -7862,37 +7866,37 @@
         <v>1</v>
       </c>
       <c r="K181" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L181" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="L181" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="M181" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="M181" s="42" t="s">
+      <c r="N181" s="57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="45"/>
+      <c r="B182" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="N181" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="40"/>
-      <c r="B182" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C182" s="47" t="str">
+      <c r="C182" s="58" t="str">
         <f t="shared" ref="C182:E197" si="26">C181</f>
         <v>DM Review</v>
       </c>
-      <c r="D182" s="47" t="str">
+      <c r="D182" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E182" s="47" t="str">
+      <c r="E182" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F182" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G182" s="22" t="s">
         <v>12</v>
@@ -7907,31 +7911,31 @@
         <v>2</v>
       </c>
       <c r="K182" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L182" s="42"/>
-      <c r="M182" s="42"/>
-      <c r="N182" s="42"/>
+        <v>143</v>
+      </c>
+      <c r="L182" s="57"/>
+      <c r="M182" s="57"/>
+      <c r="N182" s="57"/>
     </row>
     <row r="183" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="40"/>
-      <c r="B183" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C183" s="47" t="str">
+      <c r="A183" s="45"/>
+      <c r="B183" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C183" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D183" s="47" t="str">
+      <c r="D183" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E183" s="47" t="str">
+      <c r="E183" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F183" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G183" s="22" t="s">
         <v>14</v>
@@ -7946,31 +7950,31 @@
         <v>3</v>
       </c>
       <c r="K183" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="L183" s="42"/>
-      <c r="M183" s="42"/>
-      <c r="N183" s="42"/>
+        <v>144</v>
+      </c>
+      <c r="L183" s="57"/>
+      <c r="M183" s="57"/>
+      <c r="N183" s="57"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="40"/>
-      <c r="B184" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C184" s="47" t="str">
+      <c r="A184" s="45"/>
+      <c r="B184" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C184" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D184" s="47" t="str">
+      <c r="D184" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E184" s="47" t="str">
+      <c r="E184" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F184" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G184" s="22" t="s">
         <v>17</v>
@@ -7985,29 +7989,29 @@
         <v>4</v>
       </c>
       <c r="K184" s="23"/>
-      <c r="L184" s="42"/>
-      <c r="M184" s="42"/>
-      <c r="N184" s="42"/>
+      <c r="L184" s="57"/>
+      <c r="M184" s="57"/>
+      <c r="N184" s="57"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="40"/>
-      <c r="B185" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C185" s="47" t="str">
+      <c r="A185" s="45"/>
+      <c r="B185" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C185" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D185" s="47" t="str">
+      <c r="D185" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E185" s="47" t="str">
+      <c r="E185" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F185" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G185" s="22" t="s">
         <v>19</v>
@@ -8022,29 +8026,29 @@
         <v>5</v>
       </c>
       <c r="K185" s="23"/>
-      <c r="L185" s="42"/>
-      <c r="M185" s="42"/>
-      <c r="N185" s="42"/>
+      <c r="L185" s="57"/>
+      <c r="M185" s="57"/>
+      <c r="N185" s="57"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="40"/>
-      <c r="B186" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C186" s="47" t="str">
+      <c r="A186" s="45"/>
+      <c r="B186" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C186" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D186" s="47" t="str">
+      <c r="D186" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E186" s="47" t="str">
+      <c r="E186" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F186" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G186" s="22"/>
       <c r="H186" s="22" t="s">
@@ -8057,29 +8061,29 @@
         <v>6</v>
       </c>
       <c r="K186" s="23"/>
-      <c r="L186" s="42"/>
-      <c r="M186" s="42"/>
-      <c r="N186" s="42"/>
+      <c r="L186" s="57"/>
+      <c r="M186" s="57"/>
+      <c r="N186" s="57"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="40"/>
-      <c r="B187" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C187" s="47" t="str">
+      <c r="A187" s="45"/>
+      <c r="B187" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C187" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D187" s="47" t="str">
+      <c r="D187" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E187" s="47" t="str">
+      <c r="E187" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F187" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G187" s="22"/>
       <c r="H187" s="22" t="s">
@@ -8092,29 +8096,29 @@
         <v>7</v>
       </c>
       <c r="K187" s="23"/>
-      <c r="L187" s="42"/>
-      <c r="M187" s="42"/>
-      <c r="N187" s="42"/>
+      <c r="L187" s="57"/>
+      <c r="M187" s="57"/>
+      <c r="N187" s="57"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="40"/>
-      <c r="B188" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C188" s="47" t="str">
+      <c r="A188" s="45"/>
+      <c r="B188" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C188" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D188" s="47" t="str">
+      <c r="D188" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E188" s="47" t="str">
+      <c r="E188" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F188" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G188" s="22"/>
       <c r="H188" s="22" t="s">
@@ -8127,29 +8131,29 @@
         <v>8</v>
       </c>
       <c r="K188" s="23"/>
-      <c r="L188" s="42"/>
-      <c r="M188" s="42"/>
-      <c r="N188" s="42"/>
+      <c r="L188" s="57"/>
+      <c r="M188" s="57"/>
+      <c r="N188" s="57"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="40"/>
-      <c r="B189" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C189" s="47" t="str">
+      <c r="A189" s="45"/>
+      <c r="B189" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C189" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D189" s="47" t="str">
+      <c r="D189" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E189" s="47" t="str">
+      <c r="E189" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F189" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G189" s="22"/>
       <c r="H189" s="22" t="s">
@@ -8162,29 +8166,29 @@
         <v>9</v>
       </c>
       <c r="K189" s="23"/>
-      <c r="L189" s="42"/>
-      <c r="M189" s="42"/>
-      <c r="N189" s="42"/>
+      <c r="L189" s="57"/>
+      <c r="M189" s="57"/>
+      <c r="N189" s="57"/>
     </row>
     <row r="190" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A190" s="40"/>
-      <c r="B190" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C190" s="47" t="str">
+      <c r="A190" s="45"/>
+      <c r="B190" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D190" s="47" t="str">
+      <c r="D190" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E190" s="47" t="str">
+      <c r="E190" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F190" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G190" s="22"/>
       <c r="H190" s="22" t="s">
@@ -8199,29 +8203,29 @@
       <c r="K190" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L190" s="42"/>
-      <c r="M190" s="42"/>
-      <c r="N190" s="42"/>
+      <c r="L190" s="57"/>
+      <c r="M190" s="57"/>
+      <c r="N190" s="57"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="40"/>
-      <c r="B191" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C191" s="47" t="str">
+      <c r="A191" s="45"/>
+      <c r="B191" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C191" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D191" s="47" t="str">
+      <c r="D191" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E191" s="47" t="str">
+      <c r="E191" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F191" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G191" s="24" t="s">
         <v>30</v>
@@ -8236,29 +8240,29 @@
         <v>11</v>
       </c>
       <c r="K191" s="25"/>
-      <c r="L191" s="42"/>
-      <c r="M191" s="42"/>
-      <c r="N191" s="42"/>
+      <c r="L191" s="57"/>
+      <c r="M191" s="57"/>
+      <c r="N191" s="57"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="40"/>
-      <c r="B192" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C192" s="47" t="str">
+      <c r="A192" s="45"/>
+      <c r="B192" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C192" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D192" s="47" t="str">
+      <c r="D192" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E192" s="47" t="str">
+      <c r="E192" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F192" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G192" s="24" t="s">
         <v>56</v>
@@ -8273,29 +8277,29 @@
         <v>12</v>
       </c>
       <c r="K192" s="25"/>
-      <c r="L192" s="42"/>
-      <c r="M192" s="42"/>
-      <c r="N192" s="42"/>
+      <c r="L192" s="57"/>
+      <c r="M192" s="57"/>
+      <c r="N192" s="57"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="40"/>
-      <c r="B193" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C193" s="47" t="str">
+      <c r="A193" s="45"/>
+      <c r="B193" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C193" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D193" s="47" t="str">
+      <c r="D193" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E193" s="47" t="str">
+      <c r="E193" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F193" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G193" s="24" t="s">
         <v>58</v>
@@ -8310,29 +8314,29 @@
         <v>13</v>
       </c>
       <c r="K193" s="25"/>
-      <c r="L193" s="42"/>
-      <c r="M193" s="42"/>
-      <c r="N193" s="42"/>
+      <c r="L193" s="57"/>
+      <c r="M193" s="57"/>
+      <c r="N193" s="57"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="40"/>
-      <c r="B194" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C194" s="47" t="str">
+      <c r="A194" s="45"/>
+      <c r="B194" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D194" s="47" t="str">
+      <c r="D194" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E194" s="47" t="str">
+      <c r="E194" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F194" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G194" s="24" t="s">
         <v>60</v>
@@ -8347,29 +8351,29 @@
         <v>14</v>
       </c>
       <c r="K194" s="25"/>
-      <c r="L194" s="42"/>
-      <c r="M194" s="42"/>
-      <c r="N194" s="42"/>
+      <c r="L194" s="57"/>
+      <c r="M194" s="57"/>
+      <c r="N194" s="57"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="40"/>
-      <c r="B195" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C195" s="47" t="str">
+      <c r="A195" s="45"/>
+      <c r="B195" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C195" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D195" s="47" t="str">
+      <c r="D195" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E195" s="47" t="str">
+      <c r="E195" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F195" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G195" s="24" t="s">
         <v>32</v>
@@ -8384,29 +8388,29 @@
         <v>15</v>
       </c>
       <c r="K195" s="25"/>
-      <c r="L195" s="42"/>
-      <c r="M195" s="42"/>
-      <c r="N195" s="42"/>
+      <c r="L195" s="57"/>
+      <c r="M195" s="57"/>
+      <c r="N195" s="57"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="40"/>
-      <c r="B196" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C196" s="47" t="str">
+      <c r="A196" s="45"/>
+      <c r="B196" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C196" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D196" s="47" t="str">
+      <c r="D196" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E196" s="47" t="str">
+      <c r="E196" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F196" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G196" s="24" t="s">
         <v>34</v>
@@ -8421,29 +8425,29 @@
         <v>16</v>
       </c>
       <c r="K196" s="25"/>
-      <c r="L196" s="42"/>
-      <c r="M196" s="42"/>
-      <c r="N196" s="42"/>
+      <c r="L196" s="57"/>
+      <c r="M196" s="57"/>
+      <c r="N196" s="57"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="40"/>
-      <c r="B197" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C197" s="47" t="str">
+      <c r="A197" s="45"/>
+      <c r="B197" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C197" s="58" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D197" s="47" t="str">
+      <c r="D197" s="58" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E197" s="47" t="str">
+      <c r="E197" s="58" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F197" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G197" s="24" t="s">
         <v>36</v>
@@ -8458,29 +8462,29 @@
         <v>17</v>
       </c>
       <c r="K197" s="25"/>
-      <c r="L197" s="42"/>
-      <c r="M197" s="42"/>
-      <c r="N197" s="42"/>
+      <c r="L197" s="57"/>
+      <c r="M197" s="57"/>
+      <c r="N197" s="57"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="40"/>
-      <c r="B198" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C198" s="47" t="str">
+      <c r="A198" s="45"/>
+      <c r="B198" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="C198" s="58" t="str">
         <f t="shared" ref="C198:E198" si="27">C197</f>
         <v>DM Review</v>
       </c>
-      <c r="D198" s="47" t="str">
+      <c r="D198" s="58" t="str">
         <f t="shared" si="27"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E198" s="47" t="str">
+      <c r="E198" s="58" t="str">
         <f t="shared" si="27"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F198" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G198" s="26" t="s">
         <v>28</v>
@@ -8489,27 +8493,77 @@
         <v>28</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J198" s="10">
         <v>18</v>
       </c>
       <c r="K198" s="25"/>
-      <c r="L198" s="42"/>
-      <c r="M198" s="42"/>
-      <c r="N198" s="42"/>
+      <c r="L198" s="57"/>
+      <c r="M198" s="57"/>
+      <c r="N198" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N198" xr:uid="{13975DF8-9F5D-4B3D-9DC7-C137A6F1ABAD}"/>
   <mergeCells count="80">
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M16"/>
-    <mergeCell ref="N2:N16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="C2:C16"/>
-    <mergeCell ref="D2:D16"/>
-    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="N159:N180"/>
+    <mergeCell ref="C159:C180"/>
+    <mergeCell ref="D159:D180"/>
+    <mergeCell ref="E159:E180"/>
+    <mergeCell ref="L159:L180"/>
+    <mergeCell ref="M159:M180"/>
+    <mergeCell ref="N181:N198"/>
+    <mergeCell ref="C181:C198"/>
+    <mergeCell ref="D181:D198"/>
+    <mergeCell ref="E181:E198"/>
+    <mergeCell ref="L181:L198"/>
+    <mergeCell ref="M181:M198"/>
+    <mergeCell ref="A17:A40"/>
+    <mergeCell ref="A41:A58"/>
+    <mergeCell ref="A59:A75"/>
+    <mergeCell ref="A76:A101"/>
+    <mergeCell ref="B181:B198"/>
+    <mergeCell ref="B159:B180"/>
+    <mergeCell ref="A159:A180"/>
+    <mergeCell ref="A181:A198"/>
+    <mergeCell ref="A102:A124"/>
+    <mergeCell ref="A125:A140"/>
+    <mergeCell ref="A141:A158"/>
+    <mergeCell ref="M141:M158"/>
+    <mergeCell ref="N141:N158"/>
+    <mergeCell ref="B141:B158"/>
+    <mergeCell ref="C141:C158"/>
+    <mergeCell ref="D141:D158"/>
+    <mergeCell ref="E141:E158"/>
+    <mergeCell ref="L141:L158"/>
+    <mergeCell ref="N102:N124"/>
+    <mergeCell ref="B125:B140"/>
+    <mergeCell ref="C125:C140"/>
+    <mergeCell ref="D125:D140"/>
+    <mergeCell ref="E125:E140"/>
+    <mergeCell ref="L125:L140"/>
+    <mergeCell ref="M125:M140"/>
+    <mergeCell ref="N125:N140"/>
+    <mergeCell ref="B102:B124"/>
+    <mergeCell ref="C102:C124"/>
+    <mergeCell ref="D102:D124"/>
+    <mergeCell ref="E102:E124"/>
+    <mergeCell ref="L102:L124"/>
+    <mergeCell ref="M102:M124"/>
+    <mergeCell ref="M76:M101"/>
+    <mergeCell ref="N76:N101"/>
+    <mergeCell ref="B59:B75"/>
+    <mergeCell ref="C59:C75"/>
+    <mergeCell ref="D59:D75"/>
+    <mergeCell ref="E59:E75"/>
+    <mergeCell ref="L59:L75"/>
+    <mergeCell ref="M59:M75"/>
+    <mergeCell ref="N59:N75"/>
+    <mergeCell ref="B76:B101"/>
+    <mergeCell ref="C76:C101"/>
+    <mergeCell ref="D76:D101"/>
+    <mergeCell ref="E76:E101"/>
+    <mergeCell ref="L76:L101"/>
     <mergeCell ref="N17:N40"/>
     <mergeCell ref="B41:B58"/>
     <mergeCell ref="C41:C58"/>
@@ -8524,64 +8578,14 @@
     <mergeCell ref="E17:E40"/>
     <mergeCell ref="L17:L40"/>
     <mergeCell ref="M17:M40"/>
-    <mergeCell ref="M76:M101"/>
-    <mergeCell ref="N76:N101"/>
-    <mergeCell ref="B59:B75"/>
-    <mergeCell ref="C59:C75"/>
-    <mergeCell ref="D59:D75"/>
-    <mergeCell ref="E59:E75"/>
-    <mergeCell ref="L59:L75"/>
-    <mergeCell ref="M59:M75"/>
-    <mergeCell ref="N59:N75"/>
-    <mergeCell ref="B76:B101"/>
-    <mergeCell ref="C76:C101"/>
-    <mergeCell ref="D76:D101"/>
-    <mergeCell ref="E76:E101"/>
-    <mergeCell ref="L76:L101"/>
-    <mergeCell ref="N102:N124"/>
-    <mergeCell ref="B125:B140"/>
-    <mergeCell ref="C125:C140"/>
-    <mergeCell ref="D125:D140"/>
-    <mergeCell ref="E125:E140"/>
-    <mergeCell ref="L125:L140"/>
-    <mergeCell ref="M125:M140"/>
-    <mergeCell ref="N125:N140"/>
-    <mergeCell ref="B102:B124"/>
-    <mergeCell ref="C102:C124"/>
-    <mergeCell ref="D102:D124"/>
-    <mergeCell ref="E102:E124"/>
-    <mergeCell ref="L102:L124"/>
-    <mergeCell ref="M102:M124"/>
-    <mergeCell ref="M141:M158"/>
-    <mergeCell ref="N141:N158"/>
-    <mergeCell ref="B141:B158"/>
-    <mergeCell ref="C141:C158"/>
-    <mergeCell ref="D141:D158"/>
-    <mergeCell ref="E141:E158"/>
-    <mergeCell ref="L141:L158"/>
-    <mergeCell ref="A17:A40"/>
-    <mergeCell ref="A41:A58"/>
-    <mergeCell ref="A59:A75"/>
-    <mergeCell ref="A76:A101"/>
-    <mergeCell ref="B181:B198"/>
-    <mergeCell ref="B159:B180"/>
-    <mergeCell ref="A159:A180"/>
-    <mergeCell ref="A181:A198"/>
-    <mergeCell ref="A102:A124"/>
-    <mergeCell ref="A125:A140"/>
-    <mergeCell ref="A141:A158"/>
-    <mergeCell ref="N181:N198"/>
-    <mergeCell ref="C181:C198"/>
-    <mergeCell ref="D181:D198"/>
-    <mergeCell ref="E181:E198"/>
-    <mergeCell ref="L181:L198"/>
-    <mergeCell ref="M181:M198"/>
-    <mergeCell ref="C159:C180"/>
-    <mergeCell ref="D159:D180"/>
-    <mergeCell ref="E159:E180"/>
-    <mergeCell ref="L159:L180"/>
-    <mergeCell ref="M159:M180"/>
-    <mergeCell ref="N159:N180"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M16"/>
+    <mergeCell ref="N2:N16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C2:C16"/>
+    <mergeCell ref="D2:D16"/>
+    <mergeCell ref="E2:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="18" priority="24"/>
@@ -8664,112 +8668,112 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/ReportRequirement.xlsx
+++ b/ReportRequirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u819970\Downloads\TEST\PracticeWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609A68D7-4422-4D02-8688-06A21BDACA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32DD475-BF95-4A39-8DA2-0122A814967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{679451B8-F198-4B6A-AEAE-17BB625CFCDA}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="196">
   <si>
     <t>Check ID</t>
   </si>
@@ -92,18 +92,6 @@
     <t>STUDYID</t>
   </si>
   <si>
-    <t>If 
-(CMINDC = 'Medical History'
-and 
-MHDSL1 or MHDSL2 or MHDSL3 or MHDSL4 or MHDSL5&lt;&gt;'Null'
-and 
-((CMSTDAT&lt;MHSTDAT or CMSTDAT&gt;MHENDAT)
-OR
-CMENDAT&gt;MHENDAT)
-then output
-Note: Please consider the coresponding MH from CM form.</t>
-  </si>
-  <si>
     <t>SITENUMBER</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Date and Time of Execution</t>
   </si>
   <si>
-    <t>RECORDPOSITION</t>
-  </si>
-  <si>
     <t>CM Recordposition</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
   </si>
   <si>
     <t>MH#-Term_5</t>
-  </si>
-  <si>
-    <t>RECORDPOSITION_1</t>
   </si>
   <si>
     <t>MH Recordposition</t>
@@ -392,9 +374,6 @@
     <t>AE Start Date</t>
   </si>
   <si>
-    <t>AEENDAT</t>
-  </si>
-  <si>
     <t>AE End Date</t>
   </si>
   <si>
@@ -445,9 +424,6 @@
   </si>
   <si>
     <t>AGEU</t>
-  </si>
-  <si>
-    <t>AGEU_AE</t>
   </si>
   <si>
     <t>Age unit_AE</t>
@@ -547,12 +523,6 @@
   </si>
   <si>
     <t>AE_DEMO</t>
-  </si>
-  <si>
-    <t>DM_DEMO</t>
-  </si>
-  <si>
-    <t>DM</t>
   </si>
   <si>
     <t>MH_DEMO</t>
@@ -995,6 +965,40 @@
 then output
 if no corresponding AEDSL is provided: AEDSL1  or AEDSL2 or AEDSL3 or AEDLS4 or AEDSL5
 </t>
+  </si>
+  <si>
+    <t>AESEQ</t>
+  </si>
+  <si>
+    <t>CMSEQ</t>
+  </si>
+  <si>
+    <t>If 
+(CMINDC = 'Medical History'
+and 
+MHDSL1 or MHDSL2 or MHDSL3 or MHDSL4 or MHDSL5&lt;&gt;'Null'
+and 
+((CMSTDAT&gt;MHSTDAT or CMSTDAT&lt;MHENDAT)
+OR
+CMENDAT&lt;MHENDAT)
+then output
+Note: Please consider the coresponding MH from CM form.
+#here I have reversed the &lt; signs to get data in listing else descrepant data would be blank</t>
+  </si>
+  <si>
+    <t>DEMO_DM</t>
+  </si>
+  <si>
+    <t>DEMO_AE</t>
+  </si>
+  <si>
+    <t>DEMO_CM</t>
+  </si>
+  <si>
+    <t>DEMO_MH</t>
+  </si>
+  <si>
+    <t>MHSEQ</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1080,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,6 +1096,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1288,44 +1298,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1339,14 +1334,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1892,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13975DF8-9F5D-4B3D-9DC7-C137A6F1ABAD}">
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D162" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L159" sqref="L159:L180"/>
+    <sheetView tabSelected="1" topLeftCell="G157" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="M159" sqref="M159:M180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.54296875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1926,13 +1945,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1950,21 +1969,21 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44">
+      <c r="A2" s="51">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>193</v>
+      <c r="B2" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="C2" s="43" t="s">
         <v>8</v>
@@ -1973,10 +1992,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>10</v>
@@ -1991,21 +2010,21 @@
         <v>1</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>186</v>
+        <v>137</v>
+      </c>
+      <c r="L2" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>179</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="43" t="str">
         <f t="shared" ref="C3:E3" si="0">C2</f>
         <v>DM Review</v>
@@ -2018,31 +2037,31 @@
         <f t="shared" si="0"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>147</v>
+      <c r="F3" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J3" s="20">
         <v>2</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L3" s="44"/>
       <c r="M3" s="43"/>
       <c r="N3" s="43"/>
     </row>
     <row r="4" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="41"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="43" t="str">
         <f t="shared" ref="C4:E4" si="1">C3</f>
         <v>DM Review</v>
@@ -2055,31 +2074,31 @@
         <f t="shared" si="1"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>147</v>
+      <c r="F4" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="J4" s="20">
         <v>3</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L4" s="44"/>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="43" t="str">
         <f t="shared" ref="C5:E5" si="2">C4</f>
         <v>DM Review</v>
@@ -2092,29 +2111,29 @@
         <f t="shared" si="2"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>147</v>
+      <c r="F5" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J5" s="20">
         <v>4</v>
       </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="43" t="str">
         <f t="shared" ref="C6:E6" si="3">C5</f>
         <v>DM Review</v>
@@ -2127,29 +2146,29 @@
         <f t="shared" si="3"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>147</v>
+      <c r="F6" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="J6" s="20">
         <v>5</v>
       </c>
       <c r="K6" s="7"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="41"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="43" t="str">
         <f t="shared" ref="C7:E7" si="4">C6</f>
         <v>DM Review</v>
@@ -2162,27 +2181,27 @@
         <f t="shared" si="4"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>147</v>
+      <c r="F7" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="20">
         <v>6</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="41"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="43" t="str">
         <f t="shared" ref="C8:E8" si="5">C7</f>
         <v>DM Review</v>
@@ -2195,27 +2214,27 @@
         <f t="shared" si="5"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>147</v>
+      <c r="F8" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J8" s="20">
         <v>7</v>
       </c>
       <c r="K8" s="7"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="43"/>
       <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="41"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="43" t="str">
         <f t="shared" ref="C9:E9" si="6">C8</f>
         <v>DM Review</v>
@@ -2228,27 +2247,27 @@
         <f t="shared" si="6"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>147</v>
+      <c r="F9" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="20">
         <v>8</v>
       </c>
       <c r="K9" s="7"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="44"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="43" t="str">
         <f t="shared" ref="C10:E10" si="7">C9</f>
         <v>DM Review</v>
@@ -2261,27 +2280,27 @@
         <f t="shared" si="7"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>147</v>
+      <c r="F10" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="20">
         <v>9</v>
       </c>
       <c r="K10" s="7"/>
-      <c r="L10" s="41"/>
+      <c r="L10" s="44"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
     </row>
     <row r="11" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="41"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="43" t="str">
         <f t="shared" ref="C11:E11" si="8">C10</f>
         <v>DM Review</v>
@@ -2294,29 +2313,29 @@
         <f t="shared" si="8"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>147</v>
+      <c r="F11" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J11" s="20">
         <v>10</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L11" s="44"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
     </row>
     <row r="12" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="43" t="str">
         <f t="shared" ref="C12:E12" si="9">C11</f>
         <v>DM Review</v>
@@ -2329,29 +2348,29 @@
         <f t="shared" si="9"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>147</v>
+      <c r="F12" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J12" s="32">
         <v>11</v>
       </c>
       <c r="K12" s="31"/>
-      <c r="L12" s="41"/>
+      <c r="L12" s="44"/>
       <c r="M12" s="43"/>
       <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="43" t="str">
         <f t="shared" ref="C13:E13" si="10">C12</f>
         <v>DM Review</v>
@@ -2364,29 +2383,29 @@
         <f t="shared" si="10"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>147</v>
+      <c r="F13" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="I13" s="31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J13" s="32">
         <v>12</v>
       </c>
       <c r="K13" s="31"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="43" t="str">
         <f t="shared" ref="C14:E14" si="11">C13</f>
         <v>DM Review</v>
@@ -2399,29 +2418,29 @@
         <f t="shared" si="11"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>147</v>
+      <c r="F14" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J14" s="32">
         <v>13</v>
       </c>
       <c r="K14" s="31"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="44"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="43" t="str">
         <f t="shared" ref="C15:E15" si="12">C14</f>
         <v>DM Review</v>
@@ -2434,29 +2453,29 @@
         <f t="shared" si="12"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>147</v>
+      <c r="F15" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J15" s="32">
         <v>14</v>
       </c>
       <c r="K15" s="31"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="43" t="str">
         <f t="shared" ref="C16:E16" si="13">C15</f>
         <v>DM Review</v>
@@ -2469,44 +2488,44 @@
         <f t="shared" si="13"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>147</v>
+      <c r="F16" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>190</v>
+        <v>183</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>183</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J16" s="32">
         <v>15</v>
       </c>
       <c r="K16" s="31"/>
-      <c r="L16" s="41"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" s="8" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52">
+      <c r="A17" s="47">
         <v>2</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="46" t="s">
-        <v>146</v>
+      <c r="E17" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>10</v>
@@ -2521,756 +2540,756 @@
         <v>1</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="M17" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="N17" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="55" t="str">
+        <f t="shared" ref="C18:E30" si="14">C17</f>
+        <v>DM Review</v>
+      </c>
+      <c r="D18" s="55" t="str">
+        <f t="shared" si="14"/>
+        <v>RAW Data Structure</v>
+      </c>
+      <c r="E18" s="55" t="str">
+        <f t="shared" si="14"/>
+        <v>CM_DEMO</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="46" t="str">
-        <f t="shared" ref="C18:E30" si="14">C17</f>
-        <v>DM Review</v>
-      </c>
-      <c r="D18" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v>RAW Data Structure</v>
-      </c>
-      <c r="E18" s="46" t="str">
-        <f t="shared" si="14"/>
-        <v>CM_DEMO</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J18" s="6">
         <v>2</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="50"/>
+        <v>138</v>
+      </c>
+      <c r="L18" s="60"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="46" t="str">
+      <c r="A19" s="48"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D19" s="46" t="str">
+      <c r="D19" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E19" s="46" t="str">
+      <c r="E19" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>146</v>
+      <c r="F19" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J19" s="6">
         <v>3</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L19" s="50"/>
+        <v>139</v>
+      </c>
+      <c r="L19" s="60"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
     </row>
     <row r="20" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="46" t="str">
+      <c r="A20" s="48"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D20" s="46" t="str">
+      <c r="D20" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E20" s="46" t="str">
+      <c r="E20" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>146</v>
+      <c r="F20" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J20" s="6">
         <v>4</v>
       </c>
       <c r="K20" s="7"/>
-      <c r="L20" s="50"/>
+      <c r="L20" s="60"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="46" t="str">
+      <c r="A21" s="48"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D21" s="46" t="str">
+      <c r="D21" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E21" s="46" t="str">
+      <c r="E21" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>146</v>
+      <c r="F21" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J21" s="6">
         <v>5</v>
       </c>
       <c r="K21" s="7"/>
-      <c r="L21" s="50"/>
+      <c r="L21" s="60"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="46" t="str">
+      <c r="A22" s="48"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D22" s="46" t="str">
+      <c r="D22" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E22" s="46" t="str">
+      <c r="E22" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>146</v>
+      <c r="F22" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="6">
         <v>6</v>
       </c>
       <c r="K22" s="7"/>
-      <c r="L22" s="50"/>
+      <c r="L22" s="60"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="46" t="str">
+      <c r="A23" s="48"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D23" s="46" t="str">
+      <c r="D23" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E23" s="46" t="str">
+      <c r="E23" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>146</v>
+      <c r="F23" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="6">
         <v>7</v>
       </c>
       <c r="K23" s="7"/>
-      <c r="L23" s="50"/>
+      <c r="L23" s="60"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
     </row>
     <row r="24" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="46" t="str">
+      <c r="A24" s="48"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D24" s="46" t="str">
+      <c r="D24" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E24" s="46" t="str">
+      <c r="E24" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>146</v>
+      <c r="F24" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J24" s="6">
         <v>8</v>
       </c>
       <c r="K24" s="7"/>
-      <c r="L24" s="50"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
     </row>
     <row r="25" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="46" t="str">
+      <c r="A25" s="48"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D25" s="46" t="str">
+      <c r="D25" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E25" s="46" t="str">
+      <c r="E25" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>146</v>
+      <c r="F25" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J25" s="6">
         <v>9</v>
       </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="50"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="43"/>
       <c r="N25" s="43"/>
     </row>
     <row r="26" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="46" t="str">
+      <c r="A26" s="48"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D26" s="46" t="str">
+      <c r="D26" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E26" s="46" t="str">
+      <c r="E26" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>146</v>
+      <c r="F26" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J26" s="6">
         <v>10</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" s="50"/>
+        <v>26</v>
+      </c>
+      <c r="L26" s="60"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
     </row>
     <row r="27" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="30" t="s">
-        <v>146</v>
+      <c r="A27" s="48"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>28</v>
+        <v>189</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J27" s="10">
         <v>11</v>
       </c>
       <c r="K27" s="11"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
     </row>
     <row r="28" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="46" t="str">
+      <c r="A28" s="48"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="55" t="str">
         <f>C26</f>
         <v>DM Review</v>
       </c>
-      <c r="D28" s="46" t="str">
+      <c r="D28" s="55" t="str">
         <f>D26</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E28" s="46" t="str">
+      <c r="E28" s="55" t="str">
         <f>E26</f>
         <v>CM_DEMO</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>146</v>
+      <c r="F28" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" s="10">
         <v>12</v>
       </c>
       <c r="K28" s="11"/>
-      <c r="L28" s="50"/>
+      <c r="L28" s="60"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
     </row>
     <row r="29" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="46" t="str">
+      <c r="A29" s="48"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D29" s="46" t="str">
+      <c r="D29" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E29" s="46" t="str">
+      <c r="E29" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>146</v>
+      <c r="F29" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J29" s="10">
         <v>13</v>
       </c>
       <c r="K29" s="11"/>
-      <c r="L29" s="50"/>
+      <c r="L29" s="60"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
     </row>
     <row r="30" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="46" t="str">
+      <c r="A30" s="48"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="55" t="str">
         <f t="shared" si="14"/>
         <v>DM Review</v>
       </c>
-      <c r="D30" s="46" t="str">
+      <c r="D30" s="55" t="str">
         <f t="shared" si="14"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E30" s="46" t="str">
+      <c r="E30" s="55" t="str">
         <f t="shared" si="14"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>146</v>
+      <c r="F30" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J30" s="10">
         <v>14</v>
       </c>
       <c r="K30" s="11"/>
-      <c r="L30" s="50"/>
+      <c r="L30" s="60"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
     </row>
     <row r="31" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="30" t="s">
-        <v>146</v>
+      <c r="A31" s="48"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J31" s="10">
         <v>15</v>
       </c>
       <c r="K31" s="11"/>
-      <c r="L31" s="50"/>
+      <c r="L31" s="60"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
     </row>
     <row r="32" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="30" t="s">
-        <v>146</v>
+      <c r="A32" s="48"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J32" s="10">
         <v>16</v>
       </c>
       <c r="K32" s="11"/>
-      <c r="L32" s="50"/>
+      <c r="L32" s="60"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
     </row>
     <row r="33" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="30" t="s">
-        <v>146</v>
+      <c r="A33" s="48"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J33" s="10">
         <v>17</v>
       </c>
       <c r="K33" s="11"/>
-      <c r="L33" s="50"/>
+      <c r="L33" s="60"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="30" t="s">
-        <v>146</v>
+      <c r="A34" s="48"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34" s="10">
         <v>18</v>
       </c>
       <c r="K34" s="11"/>
-      <c r="L34" s="50"/>
+      <c r="L34" s="60"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="30" t="s">
-        <v>146</v>
+      <c r="A35" s="48"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J35" s="10">
         <v>19</v>
       </c>
       <c r="K35" s="11"/>
-      <c r="L35" s="50"/>
+      <c r="L35" s="60"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="30" t="s">
-        <v>146</v>
+      <c r="A36" s="48"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J36" s="10">
         <v>20</v>
       </c>
       <c r="K36" s="11"/>
-      <c r="L36" s="50"/>
+      <c r="L36" s="60"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
+      <c r="A37" s="48"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="30" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>48</v>
+        <v>195</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J37" s="10">
         <v>21</v>
       </c>
       <c r="K37" s="11"/>
-      <c r="L37" s="50"/>
+      <c r="L37" s="60"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="46" t="str">
+      <c r="A38" s="48"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="55" t="str">
         <f>C30</f>
         <v>DM Review</v>
       </c>
-      <c r="D38" s="46" t="str">
+      <c r="D38" s="55" t="str">
         <f>D30</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E38" s="46" t="str">
+      <c r="E38" s="55" t="str">
         <f>E30</f>
         <v>CM_DEMO</v>
       </c>
-      <c r="F38" s="30" t="s">
-        <v>150</v>
+      <c r="F38" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J38" s="10">
         <v>22</v>
       </c>
       <c r="K38" s="11"/>
-      <c r="L38" s="50"/>
+      <c r="L38" s="60"/>
       <c r="M38" s="43"/>
       <c r="N38" s="43"/>
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="46" t="str">
+      <c r="A39" s="48"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="55" t="str">
         <f t="shared" ref="C39:E39" si="15">C38</f>
         <v>DM Review</v>
       </c>
-      <c r="D39" s="46" t="str">
+      <c r="D39" s="55" t="str">
         <f t="shared" si="15"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E39" s="46" t="str">
+      <c r="E39" s="55" t="str">
         <f t="shared" si="15"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>150</v>
+      <c r="F39" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J39" s="10">
         <v>23</v>
       </c>
       <c r="K39" s="11"/>
-      <c r="L39" s="50"/>
+      <c r="L39" s="60"/>
       <c r="M39" s="43"/>
       <c r="N39" s="43"/>
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="54"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="30" t="s">
-        <v>150</v>
+      <c r="A40" s="49"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J40" s="10">
         <v>24</v>
       </c>
       <c r="K40" s="11"/>
-      <c r="L40" s="50"/>
+      <c r="L40" s="60"/>
       <c r="M40" s="43"/>
       <c r="N40" s="43"/>
     </row>
     <row r="41" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="52">
+      <c r="A41" s="47">
         <v>3</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="46" t="s">
+      <c r="B41" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>146</v>
+      <c r="E41" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>10</v>
@@ -3285,678 +3304,678 @@
         <v>1</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L41" s="41" t="s">
-        <v>55</v>
+        <v>137</v>
+      </c>
+      <c r="L41" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N41" s="43" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="46" t="str">
+      <c r="A42" s="48"/>
+      <c r="B42" s="55" t="str">
         <f t="shared" ref="B42:E57" si="16">B41</f>
         <v>Listing3</v>
       </c>
-      <c r="C42" s="46" t="str">
+      <c r="C42" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D42" s="46" t="str">
+      <c r="D42" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E42" s="46" t="str">
+      <c r="E42" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F42" s="30" t="s">
-        <v>146</v>
+      <c r="F42" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J42" s="6">
         <v>2</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L42" s="44"/>
       <c r="M42" s="43"/>
       <c r="N42" s="43"/>
     </row>
     <row r="43" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="46" t="str">
+      <c r="A43" s="48"/>
+      <c r="B43" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C43" s="46" t="str">
+      <c r="C43" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D43" s="46" t="str">
+      <c r="D43" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E43" s="46" t="str">
+      <c r="E43" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F43" s="30" t="s">
-        <v>146</v>
+      <c r="F43" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J43" s="6">
         <v>3</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L43" s="44"/>
       <c r="M43" s="43"/>
       <c r="N43" s="43"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="46" t="str">
+      <c r="A44" s="48"/>
+      <c r="B44" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C44" s="46" t="str">
+      <c r="C44" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D44" s="46" t="str">
+      <c r="D44" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E44" s="46" t="str">
+      <c r="E44" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F44" s="30" t="s">
-        <v>146</v>
+      <c r="F44" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J44" s="6">
         <v>4</v>
       </c>
       <c r="K44" s="12"/>
-      <c r="L44" s="41"/>
+      <c r="L44" s="44"/>
       <c r="M44" s="43"/>
       <c r="N44" s="43"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="46" t="str">
+      <c r="A45" s="48"/>
+      <c r="B45" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C45" s="46" t="str">
+      <c r="C45" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D45" s="46" t="str">
+      <c r="D45" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E45" s="46" t="str">
+      <c r="E45" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F45" s="30" t="s">
-        <v>146</v>
+      <c r="F45" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J45" s="6">
         <v>5</v>
       </c>
       <c r="K45" s="12"/>
-      <c r="L45" s="41"/>
+      <c r="L45" s="44"/>
       <c r="M45" s="43"/>
       <c r="N45" s="43"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="46" t="str">
+      <c r="A46" s="48"/>
+      <c r="B46" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C46" s="46" t="str">
+      <c r="C46" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D46" s="46" t="str">
+      <c r="D46" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E46" s="46" t="str">
+      <c r="E46" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F46" s="30" t="s">
-        <v>146</v>
+      <c r="F46" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J46" s="6">
         <v>6</v>
       </c>
       <c r="K46" s="12"/>
-      <c r="L46" s="41"/>
+      <c r="L46" s="44"/>
       <c r="M46" s="43"/>
       <c r="N46" s="43"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
-      <c r="B47" s="46" t="str">
+      <c r="A47" s="48"/>
+      <c r="B47" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C47" s="46" t="str">
+      <c r="C47" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D47" s="46" t="str">
+      <c r="D47" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E47" s="46" t="str">
+      <c r="E47" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F47" s="30" t="s">
-        <v>146</v>
+      <c r="F47" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J47" s="6">
         <v>7</v>
       </c>
       <c r="K47" s="12"/>
-      <c r="L47" s="41"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="43"/>
       <c r="N47" s="43"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
-      <c r="B48" s="46" t="str">
+      <c r="A48" s="48"/>
+      <c r="B48" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C48" s="46" t="str">
+      <c r="C48" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D48" s="46" t="str">
+      <c r="D48" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E48" s="46" t="str">
+      <c r="E48" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F48" s="30" t="s">
-        <v>146</v>
+      <c r="F48" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J48" s="6">
         <v>8</v>
       </c>
       <c r="K48" s="12"/>
-      <c r="L48" s="41"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="43"/>
       <c r="N48" s="43"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="53"/>
-      <c r="B49" s="46" t="str">
+      <c r="A49" s="48"/>
+      <c r="B49" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C49" s="46" t="str">
+      <c r="C49" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D49" s="46" t="str">
+      <c r="D49" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E49" s="46" t="str">
+      <c r="E49" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>146</v>
+      <c r="F49" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J49" s="6">
         <v>9</v>
       </c>
       <c r="K49" s="12"/>
-      <c r="L49" s="41"/>
+      <c r="L49" s="44"/>
       <c r="M49" s="43"/>
       <c r="N49" s="43"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
-      <c r="B50" s="46" t="str">
+      <c r="A50" s="48"/>
+      <c r="B50" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C50" s="46" t="str">
+      <c r="C50" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D50" s="46" t="str">
+      <c r="D50" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E50" s="46" t="str">
+      <c r="E50" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F50" s="30" t="s">
-        <v>146</v>
+      <c r="F50" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J50" s="6">
         <v>10</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L50" s="44"/>
       <c r="M50" s="43"/>
       <c r="N50" s="43"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="46" t="str">
+      <c r="A51" s="48"/>
+      <c r="B51" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C51" s="46" t="str">
+      <c r="C51" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D51" s="46" t="str">
+      <c r="D51" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E51" s="46" t="str">
+      <c r="E51" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F51" s="30" t="s">
-        <v>146</v>
+      <c r="F51" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J51" s="10">
         <v>11</v>
       </c>
       <c r="K51" s="14"/>
-      <c r="L51" s="41"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="43"/>
       <c r="N51" s="43"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="46" t="str">
+      <c r="A52" s="48"/>
+      <c r="B52" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C52" s="46" t="str">
+      <c r="C52" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D52" s="46" t="str">
+      <c r="D52" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E52" s="46" t="str">
+      <c r="E52" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F52" s="30" t="s">
-        <v>146</v>
+      <c r="F52" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J52" s="10">
         <v>12</v>
       </c>
       <c r="K52" s="14"/>
-      <c r="L52" s="41"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="43"/>
       <c r="N52" s="43"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="46" t="str">
+      <c r="A53" s="48"/>
+      <c r="B53" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C53" s="46" t="str">
+      <c r="C53" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D53" s="46" t="str">
+      <c r="D53" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E53" s="46" t="str">
+      <c r="E53" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F53" s="30" t="s">
-        <v>146</v>
+      <c r="F53" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J53" s="10">
         <v>13</v>
       </c>
       <c r="K53" s="14"/>
-      <c r="L53" s="41"/>
+      <c r="L53" s="44"/>
       <c r="M53" s="43"/>
       <c r="N53" s="43"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="46" t="str">
+      <c r="A54" s="48"/>
+      <c r="B54" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C54" s="46" t="str">
+      <c r="C54" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D54" s="46" t="str">
+      <c r="D54" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E54" s="46" t="str">
+      <c r="E54" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F54" s="30" t="s">
-        <v>146</v>
+      <c r="F54" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J54" s="10">
         <v>14</v>
       </c>
       <c r="K54" s="14"/>
-      <c r="L54" s="41"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="43"/>
       <c r="N54" s="43"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
-      <c r="B55" s="46" t="str">
+      <c r="A55" s="48"/>
+      <c r="B55" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C55" s="46" t="str">
+      <c r="C55" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D55" s="46" t="str">
+      <c r="D55" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E55" s="46" t="str">
+      <c r="E55" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F55" s="30" t="s">
-        <v>146</v>
+      <c r="F55" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55" s="10">
         <v>15</v>
       </c>
       <c r="K55" s="14"/>
-      <c r="L55" s="41"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="43"/>
       <c r="N55" s="43"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="46" t="str">
+      <c r="A56" s="48"/>
+      <c r="B56" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C56" s="46" t="str">
+      <c r="C56" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D56" s="46" t="str">
+      <c r="D56" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E56" s="46" t="str">
+      <c r="E56" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F56" s="30" t="s">
-        <v>146</v>
+      <c r="F56" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J56" s="10">
         <v>16</v>
       </c>
       <c r="K56" s="14"/>
-      <c r="L56" s="41"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="43"/>
       <c r="N56" s="43"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="53"/>
-      <c r="B57" s="46" t="str">
+      <c r="A57" s="48"/>
+      <c r="B57" s="55" t="str">
         <f t="shared" si="16"/>
         <v>Listing3</v>
       </c>
-      <c r="C57" s="46" t="str">
+      <c r="C57" s="55" t="str">
         <f t="shared" si="16"/>
         <v>DM Review</v>
       </c>
-      <c r="D57" s="46" t="str">
+      <c r="D57" s="55" t="str">
         <f t="shared" si="16"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E57" s="46" t="str">
+      <c r="E57" s="55" t="str">
         <f t="shared" si="16"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F57" s="30" t="s">
-        <v>146</v>
+      <c r="F57" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J57" s="10">
         <v>17</v>
       </c>
       <c r="K57" s="14"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="44"/>
       <c r="M57" s="43"/>
       <c r="N57" s="43"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
-      <c r="B58" s="46" t="str">
+      <c r="A58" s="48"/>
+      <c r="B58" s="55" t="str">
         <f t="shared" ref="B58:E58" si="17">B57</f>
         <v>Listing3</v>
       </c>
-      <c r="C58" s="46" t="str">
+      <c r="C58" s="55" t="str">
         <f t="shared" si="17"/>
         <v>DM Review</v>
       </c>
-      <c r="D58" s="46" t="str">
+      <c r="D58" s="55" t="str">
         <f t="shared" si="17"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E58" s="46" t="str">
+      <c r="E58" s="55" t="str">
         <f t="shared" si="17"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F58" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>28</v>
+      <c r="F58" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J58" s="10">
         <v>18</v>
       </c>
       <c r="K58" s="14"/>
-      <c r="L58" s="41"/>
+      <c r="L58" s="44"/>
       <c r="M58" s="43"/>
       <c r="N58" s="43"/>
     </row>
     <row r="59" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="52">
+      <c r="A59" s="47">
         <v>4</v>
       </c>
-      <c r="B59" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C59" s="47" t="s">
+      <c r="B59" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="47" t="s">
+      <c r="D59" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="30" t="s">
-        <v>150</v>
+      <c r="E59" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>10</v>
@@ -3971,448 +3990,448 @@
         <v>1</v>
       </c>
       <c r="K59" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L59" s="41" t="s">
-        <v>64</v>
+        <v>137</v>
+      </c>
+      <c r="L59" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="M59" s="43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N59" s="43" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="30" t="s">
-        <v>150</v>
+      <c r="A60" s="48"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J60" s="6">
         <v>2</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L60" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L60" s="44"/>
       <c r="M60" s="43"/>
       <c r="N60" s="43"/>
     </row>
     <row r="61" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="30" t="s">
-        <v>150</v>
+      <c r="A61" s="48"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J61" s="6">
         <v>3</v>
       </c>
       <c r="K61" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L61" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L61" s="44"/>
       <c r="M61" s="43"/>
       <c r="N61" s="43"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="53"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="30" t="s">
-        <v>150</v>
+      <c r="A62" s="48"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J62" s="6">
         <v>4</v>
       </c>
       <c r="K62" s="12"/>
-      <c r="L62" s="41"/>
+      <c r="L62" s="44"/>
       <c r="M62" s="43"/>
       <c r="N62" s="43"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="53"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="30" t="s">
-        <v>150</v>
+      <c r="A63" s="48"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J63" s="6">
         <v>5</v>
       </c>
       <c r="K63" s="12"/>
-      <c r="L63" s="41"/>
+      <c r="L63" s="44"/>
       <c r="M63" s="43"/>
       <c r="N63" s="43"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="30" t="s">
-        <v>150</v>
+      <c r="A64" s="48"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J64" s="6">
         <v>6</v>
       </c>
       <c r="K64" s="12"/>
-      <c r="L64" s="41"/>
+      <c r="L64" s="44"/>
       <c r="M64" s="43"/>
       <c r="N64" s="43"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="30" t="s">
-        <v>150</v>
+      <c r="A65" s="48"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J65" s="6">
         <v>7</v>
       </c>
       <c r="K65" s="12"/>
-      <c r="L65" s="41"/>
+      <c r="L65" s="44"/>
       <c r="M65" s="43"/>
       <c r="N65" s="43"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="53"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="30" t="s">
-        <v>150</v>
+      <c r="A66" s="48"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J66" s="6">
         <v>8</v>
       </c>
       <c r="K66" s="12"/>
-      <c r="L66" s="41"/>
+      <c r="L66" s="44"/>
       <c r="M66" s="43"/>
       <c r="N66" s="43"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="53"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="30" t="s">
-        <v>150</v>
+      <c r="A67" s="48"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J67" s="6">
         <v>9</v>
       </c>
       <c r="K67" s="12"/>
-      <c r="L67" s="41"/>
+      <c r="L67" s="44"/>
       <c r="M67" s="43"/>
       <c r="N67" s="43"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="53"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="30" t="s">
-        <v>150</v>
+      <c r="A68" s="48"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J68" s="6">
         <v>10</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L68" s="44"/>
       <c r="M68" s="43"/>
       <c r="N68" s="43"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="53"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="30" t="s">
-        <v>150</v>
+      <c r="A69" s="48"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="H69" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J69" s="10">
         <v>11</v>
       </c>
       <c r="K69" s="14"/>
-      <c r="L69" s="41"/>
+      <c r="L69" s="44"/>
       <c r="M69" s="43"/>
       <c r="N69" s="43"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="30" t="s">
-        <v>150</v>
+      <c r="A70" s="48"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J70" s="10">
         <v>12</v>
       </c>
       <c r="K70" s="14"/>
-      <c r="L70" s="41"/>
+      <c r="L70" s="44"/>
       <c r="M70" s="43"/>
       <c r="N70" s="43"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="53"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="30" t="s">
-        <v>150</v>
+      <c r="A71" s="48"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="H71" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J71" s="10">
         <v>13</v>
       </c>
       <c r="K71" s="14"/>
-      <c r="L71" s="41"/>
+      <c r="L71" s="44"/>
       <c r="M71" s="43"/>
       <c r="N71" s="43"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="53"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="30" t="s">
-        <v>150</v>
+      <c r="A72" s="48"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="H72" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J72" s="10">
         <v>14</v>
       </c>
       <c r="K72" s="14"/>
-      <c r="L72" s="41"/>
+      <c r="L72" s="44"/>
       <c r="M72" s="43"/>
       <c r="N72" s="43"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="53"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="30" t="s">
-        <v>150</v>
+      <c r="A73" s="48"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="H73" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J73" s="10">
         <v>15</v>
       </c>
       <c r="K73" s="14"/>
-      <c r="L73" s="41"/>
+      <c r="L73" s="44"/>
       <c r="M73" s="43"/>
       <c r="N73" s="43"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="53"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="30" t="s">
-        <v>150</v>
+      <c r="A74" s="48"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>69</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J74" s="10">
         <v>16</v>
       </c>
       <c r="K74" s="14"/>
-      <c r="L74" s="41"/>
+      <c r="L74" s="44"/>
       <c r="M74" s="43"/>
       <c r="N74" s="43"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="53"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>28</v>
+      <c r="A75" s="48"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J75" s="10">
         <v>18</v>
       </c>
       <c r="K75" s="14"/>
-      <c r="L75" s="41"/>
+      <c r="L75" s="44"/>
       <c r="M75" s="43"/>
       <c r="N75" s="43"/>
     </row>
     <row r="76" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="52">
+      <c r="A76" s="47">
         <v>5</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="46" t="s">
+      <c r="B76" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>146</v>
+      <c r="E76" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>10</v>
@@ -4427,835 +4446,835 @@
         <v>1</v>
       </c>
       <c r="K76" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L76" s="41" t="s">
-        <v>74</v>
+        <v>137</v>
+      </c>
+      <c r="L76" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="M76" s="43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N76" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="53"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="46" t="str">
+      <c r="A77" s="48"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55" t="str">
         <f t="shared" ref="C77:E88" si="18">C76</f>
         <v>DM Review</v>
       </c>
-      <c r="D77" s="46" t="str">
+      <c r="D77" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E77" s="46" t="str">
+      <c r="E77" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
       <c r="F77" s="30" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="G77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I77" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="6">
         <v>2</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L77" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L77" s="44"/>
       <c r="M77" s="43"/>
       <c r="N77" s="43"/>
     </row>
     <row r="78" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="53"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="46" t="str">
+      <c r="A78" s="48"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D78" s="46" t="str">
+      <c r="D78" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E78" s="46" t="str">
+      <c r="E78" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F78" s="30" t="s">
-        <v>148</v>
+      <c r="F78" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J78" s="6">
         <v>3</v>
       </c>
       <c r="K78" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L78" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L78" s="44"/>
       <c r="M78" s="43"/>
       <c r="N78" s="43"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="53"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="46" t="str">
+      <c r="A79" s="48"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D79" s="46" t="str">
+      <c r="D79" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E79" s="46" t="str">
+      <c r="E79" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F79" s="30" t="s">
-        <v>146</v>
+      <c r="F79" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H79" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I79" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J79" s="6">
         <v>4</v>
       </c>
       <c r="K79" s="7"/>
-      <c r="L79" s="41"/>
+      <c r="L79" s="44"/>
       <c r="M79" s="43"/>
       <c r="N79" s="43"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="53"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46" t="str">
+      <c r="A80" s="48"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D80" s="46" t="str">
+      <c r="D80" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E80" s="46" t="str">
+      <c r="E80" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F80" s="30" t="s">
-        <v>146</v>
+      <c r="F80" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I80" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J80" s="6">
         <v>5</v>
       </c>
       <c r="K80" s="7"/>
-      <c r="L80" s="41"/>
+      <c r="L80" s="44"/>
       <c r="M80" s="43"/>
       <c r="N80" s="43"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="53"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46" t="str">
+      <c r="A81" s="48"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D81" s="46" t="str">
+      <c r="D81" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E81" s="46" t="str">
+      <c r="E81" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F81" s="30" t="s">
-        <v>146</v>
+      <c r="F81" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J81" s="6">
         <v>6</v>
       </c>
       <c r="K81" s="7"/>
-      <c r="L81" s="41"/>
+      <c r="L81" s="44"/>
       <c r="M81" s="43"/>
       <c r="N81" s="43"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="53"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46" t="str">
+      <c r="A82" s="48"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D82" s="46" t="str">
+      <c r="D82" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E82" s="46" t="str">
+      <c r="E82" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F82" s="30" t="s">
-        <v>146</v>
+      <c r="F82" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" s="6">
         <v>7</v>
       </c>
       <c r="K82" s="7"/>
-      <c r="L82" s="41"/>
+      <c r="L82" s="44"/>
       <c r="M82" s="43"/>
       <c r="N82" s="43"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="53"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46" t="str">
+      <c r="A83" s="48"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D83" s="46" t="str">
+      <c r="D83" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E83" s="46" t="str">
+      <c r="E83" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F83" s="30" t="s">
-        <v>146</v>
+      <c r="F83" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J83" s="6">
         <v>8</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="41"/>
+      <c r="L83" s="44"/>
       <c r="M83" s="43"/>
       <c r="N83" s="43"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="53"/>
-      <c r="B84" s="46"/>
-      <c r="C84" s="46" t="str">
+      <c r="A84" s="48"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D84" s="46" t="str">
+      <c r="D84" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E84" s="46" t="str">
+      <c r="E84" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F84" s="30" t="s">
-        <v>146</v>
+      <c r="F84" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J84" s="6">
         <v>9</v>
       </c>
       <c r="K84" s="7"/>
-      <c r="L84" s="41"/>
+      <c r="L84" s="44"/>
       <c r="M84" s="43"/>
       <c r="N84" s="43"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="53"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46" t="str">
+      <c r="A85" s="48"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D85" s="46" t="str">
+      <c r="D85" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E85" s="46" t="str">
+      <c r="E85" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F85" s="30" t="s">
-        <v>146</v>
+      <c r="F85" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I85" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J85" s="6">
         <v>10</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L85" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L85" s="44"/>
       <c r="M85" s="43"/>
       <c r="N85" s="43"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="53"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46" t="str">
+      <c r="A86" s="48"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D86" s="46" t="str">
+      <c r="D86" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E86" s="46" t="str">
+      <c r="E86" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F86" s="30" t="s">
-        <v>146</v>
+      <c r="F86" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J86" s="10">
         <v>11</v>
       </c>
       <c r="K86" s="11"/>
-      <c r="L86" s="41"/>
+      <c r="L86" s="44"/>
       <c r="M86" s="43"/>
       <c r="N86" s="43"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="53"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="46" t="str">
+      <c r="A87" s="48"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D87" s="46" t="str">
+      <c r="D87" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E87" s="46" t="str">
+      <c r="E87" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F87" s="30" t="s">
-        <v>146</v>
+      <c r="F87" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H87" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J87" s="10">
         <v>12</v>
       </c>
       <c r="K87" s="11"/>
-      <c r="L87" s="41"/>
+      <c r="L87" s="44"/>
       <c r="M87" s="43"/>
       <c r="N87" s="43"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="53"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="46" t="str">
+      <c r="A88" s="48"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="55" t="str">
         <f t="shared" si="18"/>
         <v>DM Review</v>
       </c>
-      <c r="D88" s="46" t="str">
+      <c r="D88" s="55" t="str">
         <f t="shared" si="18"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E88" s="46" t="str">
+      <c r="E88" s="55" t="str">
         <f t="shared" si="18"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F88" s="30" t="s">
-        <v>146</v>
+      <c r="F88" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H88" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J88" s="10">
         <v>13</v>
       </c>
       <c r="K88" s="11"/>
-      <c r="L88" s="41"/>
+      <c r="L88" s="44"/>
       <c r="M88" s="43"/>
       <c r="N88" s="43"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="53"/>
-      <c r="B89" s="46"/>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="30" t="s">
-        <v>146</v>
+      <c r="A89" s="48"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J89" s="10">
         <v>14</v>
       </c>
       <c r="K89" s="11"/>
-      <c r="L89" s="41"/>
+      <c r="L89" s="44"/>
       <c r="M89" s="43"/>
       <c r="N89" s="43"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="53"/>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="30" t="s">
-        <v>146</v>
+      <c r="A90" s="48"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J90" s="10">
         <v>15</v>
       </c>
       <c r="K90" s="11"/>
-      <c r="L90" s="41"/>
+      <c r="L90" s="44"/>
       <c r="M90" s="43"/>
       <c r="N90" s="43"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="46"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="30" t="s">
-        <v>146</v>
+      <c r="A91" s="48"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J91" s="10">
         <v>16</v>
       </c>
       <c r="K91" s="11"/>
-      <c r="L91" s="41"/>
+      <c r="L91" s="44"/>
       <c r="M91" s="43"/>
       <c r="N91" s="43"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="53"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="46"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="30" t="s">
-        <v>146</v>
+      <c r="A92" s="48"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J92" s="10">
         <v>17</v>
       </c>
       <c r="K92" s="11"/>
-      <c r="L92" s="41"/>
+      <c r="L92" s="44"/>
       <c r="M92" s="43"/>
       <c r="N92" s="43"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
-      <c r="B93" s="46"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="46"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="30" t="s">
-        <v>146</v>
+      <c r="A93" s="48"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J93" s="10">
         <v>18</v>
       </c>
       <c r="K93" s="11"/>
-      <c r="L93" s="41"/>
+      <c r="L93" s="44"/>
       <c r="M93" s="43"/>
       <c r="N93" s="43"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
-      <c r="B94" s="46"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="46"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>28</v>
+      <c r="A94" s="48"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="G94" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="H94" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J94" s="10">
         <v>19</v>
       </c>
       <c r="K94" s="11"/>
-      <c r="L94" s="41"/>
+      <c r="L94" s="44"/>
       <c r="M94" s="43"/>
       <c r="N94" s="43"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="53"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="46" t="str">
+      <c r="A95" s="48"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55" t="str">
         <f>C88</f>
         <v>DM Review</v>
       </c>
-      <c r="D95" s="46" t="str">
+      <c r="D95" s="55" t="str">
         <f>D88</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E95" s="46" t="str">
+      <c r="E95" s="55" t="str">
         <f>E88</f>
         <v>CM_DEMO</v>
       </c>
-      <c r="F95" s="30" t="s">
-        <v>150</v>
+      <c r="F95" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="H95" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J95" s="10">
         <v>20</v>
       </c>
       <c r="K95" s="11"/>
-      <c r="L95" s="41"/>
+      <c r="L95" s="44"/>
       <c r="M95" s="43"/>
       <c r="N95" s="43"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="53"/>
-      <c r="B96" s="46"/>
-      <c r="C96" s="46" t="str">
+      <c r="A96" s="48"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="55" t="str">
         <f t="shared" ref="C96:E99" si="19">C95</f>
         <v>DM Review</v>
       </c>
-      <c r="D96" s="46" t="str">
+      <c r="D96" s="55" t="str">
         <f t="shared" si="19"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E96" s="46" t="str">
+      <c r="E96" s="55" t="str">
         <f t="shared" si="19"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F96" s="30" t="s">
-        <v>150</v>
+      <c r="F96" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="H96" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J96" s="10">
         <v>21</v>
       </c>
       <c r="K96" s="11"/>
-      <c r="L96" s="41"/>
+      <c r="L96" s="44"/>
       <c r="M96" s="43"/>
       <c r="N96" s="43"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="53"/>
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="30" t="s">
-        <v>150</v>
+      <c r="A97" s="48"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J97" s="10">
         <v>22</v>
       </c>
       <c r="K97" s="11"/>
-      <c r="L97" s="41"/>
+      <c r="L97" s="44"/>
       <c r="M97" s="43"/>
       <c r="N97" s="43"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46" t="str">
+      <c r="A98" s="48"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55" t="str">
         <f>C96</f>
         <v>DM Review</v>
       </c>
-      <c r="D98" s="46" t="str">
+      <c r="D98" s="55" t="str">
         <f>D96</f>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E98" s="46" t="str">
+      <c r="E98" s="55" t="str">
         <f>E96</f>
         <v>CM_DEMO</v>
       </c>
-      <c r="F98" s="30" t="s">
-        <v>150</v>
+      <c r="F98" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="H98" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J98" s="10">
         <v>23</v>
       </c>
       <c r="K98" s="11"/>
-      <c r="L98" s="41"/>
+      <c r="L98" s="44"/>
       <c r="M98" s="43"/>
       <c r="N98" s="43"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="53"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46" t="str">
+      <c r="A99" s="48"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="55" t="str">
         <f t="shared" si="19"/>
         <v>DM Review</v>
       </c>
-      <c r="D99" s="46" t="str">
+      <c r="D99" s="55" t="str">
         <f t="shared" si="19"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E99" s="46" t="str">
+      <c r="E99" s="55" t="str">
         <f t="shared" si="19"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F99" s="30" t="s">
-        <v>150</v>
+      <c r="F99" s="40" t="s">
+        <v>194</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="H99" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J99" s="10">
         <v>24</v>
       </c>
       <c r="K99" s="11"/>
-      <c r="L99" s="41"/>
+      <c r="L99" s="44"/>
       <c r="M99" s="43"/>
       <c r="N99" s="43"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="53"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="30" t="s">
-        <v>148</v>
+      <c r="A100" s="48"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>83</v>
+        <v>18</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J100" s="10">
         <v>25</v>
       </c>
       <c r="K100" s="11"/>
-      <c r="L100" s="41"/>
+      <c r="L100" s="44"/>
       <c r="M100" s="43"/>
       <c r="N100" s="43"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46" t="str">
+      <c r="A101" s="49"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55" t="str">
         <f t="shared" ref="C101:E101" si="20">C99</f>
         <v>DM Review</v>
       </c>
-      <c r="D101" s="46" t="str">
+      <c r="D101" s="55" t="str">
         <f t="shared" si="20"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E101" s="46" t="str">
+      <c r="E101" s="55" t="str">
         <f t="shared" si="20"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F101" s="30" t="s">
-        <v>148</v>
+      <c r="F101" s="61" t="s">
+        <v>191</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J101" s="10">
         <v>26</v>
       </c>
       <c r="K101" s="11"/>
-      <c r="L101" s="41"/>
+      <c r="L101" s="44"/>
       <c r="M101" s="43"/>
       <c r="N101" s="43"/>
     </row>
     <row r="102" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="44">
+      <c r="A102" s="51">
         <v>6</v>
       </c>
-      <c r="B102" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C102" s="46" t="s">
+      <c r="B102" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D102" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E102" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F102" s="30" t="s">
-        <v>146</v>
+      <c r="E102" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>10</v>
@@ -5270,790 +5289,790 @@
         <v>1</v>
       </c>
       <c r="K102" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L102" s="41" t="s">
-        <v>86</v>
+        <v>137</v>
+      </c>
+      <c r="L102" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="M102" s="43" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N102" s="43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="45"/>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46" t="str">
+      <c r="A103" s="52"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="55" t="str">
         <f t="shared" ref="C103:E118" si="21">C102</f>
         <v>DM Review</v>
       </c>
-      <c r="D103" s="46" t="str">
+      <c r="D103" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E103" s="46" t="str">
+      <c r="E103" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F103" s="30" t="s">
-        <v>146</v>
+      <c r="F103" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J103" s="6">
         <v>2</v>
       </c>
       <c r="K103" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L103" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L103" s="44"/>
       <c r="M103" s="43"/>
       <c r="N103" s="43"/>
     </row>
     <row r="104" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="45"/>
-      <c r="B104" s="46"/>
-      <c r="C104" s="46" t="str">
+      <c r="A104" s="52"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D104" s="46" t="str">
+      <c r="D104" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E104" s="46" t="str">
+      <c r="E104" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F104" s="30" t="s">
-        <v>146</v>
+      <c r="F104" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J104" s="6">
         <v>3</v>
       </c>
       <c r="K104" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L104" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L104" s="44"/>
       <c r="M104" s="43"/>
       <c r="N104" s="43"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="45"/>
-      <c r="B105" s="46"/>
-      <c r="C105" s="46" t="str">
+      <c r="A105" s="52"/>
+      <c r="B105" s="55"/>
+      <c r="C105" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D105" s="46" t="str">
+      <c r="D105" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E105" s="46" t="str">
+      <c r="E105" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F105" s="30" t="s">
-        <v>146</v>
+      <c r="F105" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J105" s="6">
         <v>4</v>
       </c>
       <c r="K105" s="7"/>
-      <c r="L105" s="41"/>
+      <c r="L105" s="44"/>
       <c r="M105" s="43"/>
       <c r="N105" s="43"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="45"/>
-      <c r="B106" s="46"/>
-      <c r="C106" s="46" t="str">
+      <c r="A106" s="52"/>
+      <c r="B106" s="55"/>
+      <c r="C106" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D106" s="46" t="str">
+      <c r="D106" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E106" s="46" t="str">
+      <c r="E106" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F106" s="30" t="s">
-        <v>146</v>
+      <c r="F106" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J106" s="6">
         <v>5</v>
       </c>
       <c r="K106" s="7"/>
-      <c r="L106" s="41"/>
+      <c r="L106" s="44"/>
       <c r="M106" s="43"/>
       <c r="N106" s="43"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="45"/>
-      <c r="B107" s="46"/>
-      <c r="C107" s="46" t="str">
+      <c r="A107" s="52"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D107" s="46" t="str">
+      <c r="D107" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E107" s="46" t="str">
+      <c r="E107" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F107" s="30" t="s">
-        <v>146</v>
+      <c r="F107" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J107" s="6">
         <v>6</v>
       </c>
       <c r="K107" s="7"/>
-      <c r="L107" s="41"/>
+      <c r="L107" s="44"/>
       <c r="M107" s="43"/>
       <c r="N107" s="43"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="45"/>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46" t="str">
+      <c r="A108" s="52"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D108" s="46" t="str">
+      <c r="D108" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E108" s="46" t="str">
+      <c r="E108" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F108" s="30" t="s">
-        <v>146</v>
+      <c r="F108" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J108" s="6">
         <v>7</v>
       </c>
       <c r="K108" s="7"/>
-      <c r="L108" s="41"/>
+      <c r="L108" s="44"/>
       <c r="M108" s="43"/>
       <c r="N108" s="43"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="45"/>
-      <c r="B109" s="46"/>
-      <c r="C109" s="46" t="str">
+      <c r="A109" s="52"/>
+      <c r="B109" s="55"/>
+      <c r="C109" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D109" s="46" t="str">
+      <c r="D109" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E109" s="46" t="str">
+      <c r="E109" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F109" s="30" t="s">
-        <v>146</v>
+      <c r="F109" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J109" s="6">
         <v>8</v>
       </c>
       <c r="K109" s="7"/>
-      <c r="L109" s="41"/>
+      <c r="L109" s="44"/>
       <c r="M109" s="43"/>
       <c r="N109" s="43"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="45"/>
-      <c r="B110" s="46"/>
-      <c r="C110" s="46" t="str">
+      <c r="A110" s="52"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D110" s="46" t="str">
+      <c r="D110" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E110" s="46" t="str">
+      <c r="E110" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F110" s="30" t="s">
-        <v>146</v>
+      <c r="F110" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J110" s="6">
         <v>9</v>
       </c>
       <c r="K110" s="7"/>
-      <c r="L110" s="41"/>
+      <c r="L110" s="44"/>
       <c r="M110" s="43"/>
       <c r="N110" s="43"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="45"/>
-      <c r="B111" s="46"/>
-      <c r="C111" s="46" t="str">
+      <c r="A111" s="52"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D111" s="46" t="str">
+      <c r="D111" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E111" s="46" t="str">
+      <c r="E111" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F111" s="30" t="s">
-        <v>146</v>
+      <c r="F111" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J111" s="6">
         <v>10</v>
       </c>
       <c r="K111" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L111" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L111" s="44"/>
       <c r="M111" s="43"/>
       <c r="N111" s="43"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A112" s="45"/>
-      <c r="B112" s="46"/>
-      <c r="C112" s="46" t="str">
+      <c r="A112" s="52"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D112" s="46" t="str">
+      <c r="D112" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E112" s="46" t="str">
+      <c r="E112" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F112" s="30" t="s">
-        <v>146</v>
+      <c r="F112" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H112" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J112" s="10">
         <v>11</v>
       </c>
       <c r="K112" s="11"/>
-      <c r="L112" s="41"/>
+      <c r="L112" s="44"/>
       <c r="M112" s="43"/>
       <c r="N112" s="43"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A113" s="45"/>
-      <c r="B113" s="46"/>
-      <c r="C113" s="46" t="str">
+      <c r="A113" s="52"/>
+      <c r="B113" s="55"/>
+      <c r="C113" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D113" s="46" t="str">
+      <c r="D113" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E113" s="46" t="str">
+      <c r="E113" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F113" s="30" t="s">
-        <v>146</v>
+      <c r="F113" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H113" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J113" s="10">
         <v>12</v>
       </c>
       <c r="K113" s="11"/>
-      <c r="L113" s="41"/>
+      <c r="L113" s="44"/>
       <c r="M113" s="43"/>
       <c r="N113" s="43"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A114" s="45"/>
-      <c r="B114" s="46"/>
-      <c r="C114" s="46" t="str">
+      <c r="A114" s="52"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D114" s="46" t="str">
+      <c r="D114" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E114" s="46" t="str">
+      <c r="E114" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F114" s="30" t="s">
-        <v>146</v>
+      <c r="F114" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J114" s="10">
         <v>13</v>
       </c>
       <c r="K114" s="11"/>
-      <c r="L114" s="41"/>
+      <c r="L114" s="44"/>
       <c r="M114" s="43"/>
       <c r="N114" s="43"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A115" s="45"/>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46" t="str">
+      <c r="A115" s="52"/>
+      <c r="B115" s="55"/>
+      <c r="C115" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D115" s="46" t="str">
+      <c r="D115" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E115" s="46" t="str">
+      <c r="E115" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F115" s="30" t="s">
-        <v>146</v>
+      <c r="F115" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J115" s="10">
         <v>14</v>
       </c>
       <c r="K115" s="11"/>
-      <c r="L115" s="41"/>
+      <c r="L115" s="44"/>
       <c r="M115" s="43"/>
       <c r="N115" s="43"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A116" s="45"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="46" t="str">
+      <c r="A116" s="52"/>
+      <c r="B116" s="55"/>
+      <c r="C116" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D116" s="46" t="str">
+      <c r="D116" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E116" s="46" t="str">
+      <c r="E116" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F116" s="30" t="s">
-        <v>146</v>
+      <c r="F116" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J116" s="10">
         <v>15</v>
       </c>
       <c r="K116" s="11"/>
-      <c r="L116" s="41"/>
+      <c r="L116" s="44"/>
       <c r="M116" s="43"/>
       <c r="N116" s="43"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A117" s="45"/>
-      <c r="B117" s="46"/>
-      <c r="C117" s="46" t="str">
+      <c r="A117" s="52"/>
+      <c r="B117" s="55"/>
+      <c r="C117" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D117" s="46" t="str">
+      <c r="D117" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E117" s="46" t="str">
+      <c r="E117" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F117" s="30" t="s">
-        <v>146</v>
+      <c r="F117" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J117" s="10">
         <v>16</v>
       </c>
       <c r="K117" s="11"/>
-      <c r="L117" s="41"/>
+      <c r="L117" s="44"/>
       <c r="M117" s="43"/>
       <c r="N117" s="43"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A118" s="45"/>
-      <c r="B118" s="46"/>
-      <c r="C118" s="46" t="str">
+      <c r="A118" s="52"/>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55" t="str">
         <f t="shared" si="21"/>
         <v>DM Review</v>
       </c>
-      <c r="D118" s="46" t="str">
+      <c r="D118" s="55" t="str">
         <f t="shared" si="21"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E118" s="46" t="str">
+      <c r="E118" s="55" t="str">
         <f t="shared" si="21"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F118" s="30" t="s">
-        <v>146</v>
+      <c r="F118" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G118" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J118" s="10">
         <v>17</v>
       </c>
       <c r="K118" s="11"/>
-      <c r="L118" s="41"/>
+      <c r="L118" s="44"/>
       <c r="M118" s="43"/>
       <c r="N118" s="43"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A119" s="45"/>
-      <c r="B119" s="46"/>
-      <c r="C119" s="46" t="str">
+      <c r="A119" s="52"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="55" t="str">
         <f t="shared" ref="C119:E124" si="22">C118</f>
         <v>DM Review</v>
       </c>
-      <c r="D119" s="46" t="str">
+      <c r="D119" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E119" s="46" t="str">
+      <c r="E119" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F119" s="30" t="s">
-        <v>146</v>
+      <c r="F119" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H119" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J119" s="10">
         <v>18</v>
       </c>
       <c r="K119" s="11"/>
-      <c r="L119" s="41"/>
+      <c r="L119" s="44"/>
       <c r="M119" s="43"/>
       <c r="N119" s="43"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A120" s="45"/>
-      <c r="B120" s="46"/>
-      <c r="C120" s="46" t="str">
+      <c r="A120" s="52"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D120" s="46" t="str">
+      <c r="D120" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E120" s="46" t="str">
+      <c r="E120" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F120" s="30" t="s">
-        <v>146</v>
+      <c r="F120" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J120" s="10">
         <v>19</v>
       </c>
       <c r="K120" s="11"/>
-      <c r="L120" s="41"/>
+      <c r="L120" s="44"/>
       <c r="M120" s="43"/>
       <c r="N120" s="43"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="45"/>
-      <c r="B121" s="46"/>
-      <c r="C121" s="46" t="str">
+      <c r="A121" s="52"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D121" s="46" t="str">
+      <c r="D121" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E121" s="46" t="str">
+      <c r="E121" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F121" s="30" t="s">
-        <v>147</v>
+      <c r="F121" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J121" s="10">
         <v>20</v>
       </c>
       <c r="K121" s="11"/>
-      <c r="L121" s="41"/>
+      <c r="L121" s="44"/>
       <c r="M121" s="43"/>
       <c r="N121" s="43"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A122" s="45"/>
-      <c r="B122" s="46"/>
-      <c r="C122" s="46" t="str">
+      <c r="A122" s="52"/>
+      <c r="B122" s="55"/>
+      <c r="C122" s="55" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D122" s="46" t="str">
+      <c r="D122" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E122" s="46" t="str">
+      <c r="E122" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F122" s="30" t="s">
-        <v>147</v>
+      <c r="F122" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="H122" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J122" s="10">
         <v>21</v>
       </c>
       <c r="K122" s="11"/>
-      <c r="L122" s="41"/>
+      <c r="L122" s="44"/>
       <c r="M122" s="43"/>
       <c r="N122" s="43"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A123" s="45"/>
-      <c r="B123" s="46"/>
-      <c r="C123" s="46" t="str">
+      <c r="A123" s="52"/>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D123" s="46" t="str">
+      <c r="D123" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E123" s="46" t="str">
+      <c r="E123" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F123" s="30" t="s">
-        <v>147</v>
+      <c r="F123" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H123" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="H123" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="I123" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J123" s="10">
         <v>22</v>
       </c>
       <c r="K123" s="11"/>
-      <c r="L123" s="41"/>
+      <c r="L123" s="44"/>
       <c r="M123" s="43"/>
       <c r="N123" s="43"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A124" s="56"/>
-      <c r="B124" s="46"/>
-      <c r="C124" s="46" t="str">
+      <c r="A124" s="53"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="55" t="str">
         <f t="shared" si="22"/>
         <v>DM Review</v>
       </c>
-      <c r="D124" s="46" t="str">
+      <c r="D124" s="55" t="str">
         <f t="shared" si="22"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E124" s="46" t="str">
+      <c r="E124" s="55" t="str">
         <f t="shared" si="22"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F124" s="30" t="s">
-        <v>147</v>
+      <c r="F124" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H124" s="9" t="s">
-        <v>104</v>
+        <v>182</v>
+      </c>
+      <c r="H124" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="I124" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="J124" s="10">
         <v>23</v>
       </c>
       <c r="K124" s="11"/>
-      <c r="L124" s="41"/>
+      <c r="L124" s="44"/>
       <c r="M124" s="43"/>
       <c r="N124" s="43"/>
     </row>
     <row r="125" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="44">
+      <c r="A125" s="51">
         <v>7</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>8</v>
@@ -6062,10 +6081,10 @@
         <v>9</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="F125" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="F125" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>10</v>
@@ -6080,20 +6099,20 @@
         <v>1</v>
       </c>
       <c r="K125" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L125" s="41" t="s">
-        <v>106</v>
+        <v>137</v>
+      </c>
+      <c r="L125" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="M125" s="43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N125" s="43" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="45"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="43"/>
       <c r="C126" s="43" t="str">
         <f t="shared" ref="C126:E140" si="23">C125</f>
@@ -6107,30 +6126,30 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F126" s="30" t="s">
-        <v>148</v>
+      <c r="F126" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="J126" s="6">
         <v>2</v>
       </c>
       <c r="K126" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L126" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L126" s="44"/>
       <c r="M126" s="43"/>
       <c r="N126" s="43"/>
     </row>
     <row r="127" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="45"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="43"/>
       <c r="C127" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6144,30 +6163,30 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F127" s="30" t="s">
-        <v>148</v>
+      <c r="F127" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H127" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J127" s="6">
         <v>3</v>
       </c>
       <c r="K127" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L127" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L127" s="44"/>
       <c r="M127" s="43"/>
       <c r="N127" s="43"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A128" s="45"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="43"/>
       <c r="C128" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6181,28 +6200,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F128" s="30" t="s">
-        <v>146</v>
+      <c r="F128" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J128" s="6">
         <v>4</v>
       </c>
       <c r="K128" s="17"/>
-      <c r="L128" s="41"/>
+      <c r="L128" s="44"/>
       <c r="M128" s="43"/>
       <c r="N128" s="43"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="45"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="43"/>
       <c r="C129" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6216,28 +6235,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F129" s="30" t="s">
-        <v>146</v>
+      <c r="F129" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J129" s="6">
         <v>5</v>
       </c>
       <c r="K129" s="17"/>
-      <c r="L129" s="41"/>
+      <c r="L129" s="44"/>
       <c r="M129" s="43"/>
       <c r="N129" s="43"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="45"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="43"/>
       <c r="C130" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6251,26 +6270,26 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F130" s="30" t="s">
-        <v>146</v>
+      <c r="F130" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J130" s="6">
         <v>6</v>
       </c>
       <c r="K130" s="17"/>
-      <c r="L130" s="41"/>
+      <c r="L130" s="44"/>
       <c r="M130" s="43"/>
       <c r="N130" s="43"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="45"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="43"/>
       <c r="C131" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6284,26 +6303,26 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F131" s="30" t="s">
-        <v>146</v>
+      <c r="F131" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J131" s="6">
         <v>7</v>
       </c>
       <c r="K131" s="17"/>
-      <c r="L131" s="41"/>
+      <c r="L131" s="44"/>
       <c r="M131" s="43"/>
       <c r="N131" s="43"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="45"/>
+      <c r="A132" s="52"/>
       <c r="B132" s="43"/>
       <c r="C132" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6317,26 +6336,26 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F132" s="30" t="s">
-        <v>146</v>
+      <c r="F132" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J132" s="6">
         <v>8</v>
       </c>
       <c r="K132" s="17"/>
-      <c r="L132" s="41"/>
+      <c r="L132" s="44"/>
       <c r="M132" s="43"/>
       <c r="N132" s="43"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="45"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="43"/>
       <c r="C133" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6350,26 +6369,26 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F133" s="30" t="s">
-        <v>146</v>
+      <c r="F133" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J133" s="6">
         <v>9</v>
       </c>
       <c r="K133" s="17"/>
-      <c r="L133" s="41"/>
+      <c r="L133" s="44"/>
       <c r="M133" s="43"/>
       <c r="N133" s="43"/>
     </row>
     <row r="134" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A134" s="45"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="43"/>
       <c r="C134" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6383,28 +6402,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F134" s="30" t="s">
-        <v>146</v>
+      <c r="F134" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J134" s="6">
         <v>10</v>
       </c>
       <c r="K134" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L134" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L134" s="44"/>
       <c r="M134" s="43"/>
       <c r="N134" s="43"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A135" s="45"/>
+      <c r="A135" s="52"/>
       <c r="B135" s="43"/>
       <c r="C135" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6418,28 +6437,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F135" s="30" t="s">
-        <v>146</v>
+      <c r="F135" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I135" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J135" s="10">
         <v>11</v>
       </c>
       <c r="K135" s="18"/>
-      <c r="L135" s="41"/>
+      <c r="L135" s="44"/>
       <c r="M135" s="43"/>
       <c r="N135" s="43"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="45"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="43"/>
       <c r="C136" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6453,28 +6472,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F136" s="30" t="s">
-        <v>146</v>
+      <c r="F136" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H136" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H136" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I136" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J136" s="10">
         <v>12</v>
       </c>
       <c r="K136" s="18"/>
-      <c r="L136" s="41"/>
+      <c r="L136" s="44"/>
       <c r="M136" s="43"/>
       <c r="N136" s="43"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="45"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="43"/>
       <c r="C137" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6488,28 +6507,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F137" s="30" t="s">
-        <v>146</v>
+      <c r="F137" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="H137" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="I137" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J137" s="10">
         <v>13</v>
       </c>
       <c r="K137" s="18"/>
-      <c r="L137" s="41"/>
+      <c r="L137" s="44"/>
       <c r="M137" s="43"/>
       <c r="N137" s="43"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="45"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="43"/>
       <c r="C138" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6523,28 +6542,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F138" s="30" t="s">
-        <v>146</v>
+      <c r="F138" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J138" s="10">
         <v>14</v>
       </c>
       <c r="K138" s="18"/>
-      <c r="L138" s="41"/>
+      <c r="L138" s="44"/>
       <c r="M138" s="43"/>
       <c r="N138" s="43"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A139" s="45"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="43"/>
       <c r="C139" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6558,28 +6577,28 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F139" s="30" t="s">
-        <v>146</v>
+      <c r="F139" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H139" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J139" s="10">
         <v>15</v>
       </c>
       <c r="K139" s="18"/>
-      <c r="L139" s="41"/>
+      <c r="L139" s="44"/>
       <c r="M139" s="43"/>
       <c r="N139" s="43"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A140" s="45"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="43"/>
       <c r="C140" s="43" t="str">
         <f t="shared" si="23"/>
@@ -6593,32 +6612,32 @@
         <f t="shared" si="23"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F140" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H140" s="19" t="s">
-        <v>28</v>
+      <c r="F140" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G140" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H140" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="I140" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J140" s="10">
         <v>16</v>
       </c>
       <c r="K140" s="18"/>
-      <c r="L140" s="41"/>
+      <c r="L140" s="44"/>
       <c r="M140" s="43"/>
       <c r="N140" s="43"/>
     </row>
     <row r="141" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="44">
+      <c r="A141" s="51">
         <v>8</v>
       </c>
-      <c r="B141" s="41" t="s">
-        <v>180</v>
+      <c r="B141" s="44" t="s">
+        <v>173</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>8</v>
@@ -6627,10 +6646,10 @@
         <v>9</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F141" s="30" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="F141" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>10</v>
@@ -6645,21 +6664,21 @@
         <v>1</v>
       </c>
       <c r="K141" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L141" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="M141" s="42" t="s">
-        <v>111</v>
+        <v>137</v>
+      </c>
+      <c r="L141" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="M141" s="54" t="s">
+        <v>107</v>
       </c>
       <c r="N141" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="45"/>
-      <c r="B142" s="41"/>
+      <c r="A142" s="52"/>
+      <c r="B142" s="44"/>
       <c r="C142" s="43" t="str">
         <f t="shared" ref="C142:E157" si="24">C141</f>
         <v>DM Review</v>
@@ -6672,31 +6691,31 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F142" s="30" t="s">
-        <v>149</v>
+      <c r="F142" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J142" s="20">
         <v>2</v>
       </c>
       <c r="K142" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L142" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L142" s="44"/>
       <c r="M142" s="43"/>
       <c r="N142" s="43"/>
     </row>
     <row r="143" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="45"/>
-      <c r="B143" s="41"/>
+      <c r="A143" s="52"/>
+      <c r="B143" s="44"/>
       <c r="C143" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6709,31 +6728,31 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F143" s="30" t="s">
-        <v>149</v>
+      <c r="F143" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H143" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="J143" s="20">
         <v>3</v>
       </c>
       <c r="K143" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L143" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L143" s="44"/>
       <c r="M143" s="43"/>
       <c r="N143" s="43"/>
     </row>
     <row r="144" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="45"/>
-      <c r="B144" s="41"/>
+      <c r="A144" s="52"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6746,29 +6765,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F144" s="30" t="s">
-        <v>147</v>
+      <c r="F144" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G144" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="J144" s="20">
         <v>4</v>
       </c>
       <c r="K144" s="7"/>
-      <c r="L144" s="41"/>
+      <c r="L144" s="44"/>
       <c r="M144" s="43"/>
       <c r="N144" s="43"/>
     </row>
     <row r="145" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="45"/>
-      <c r="B145" s="41"/>
+      <c r="A145" s="52"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6781,29 +6800,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F145" s="30" t="s">
-        <v>147</v>
+      <c r="F145" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="J145" s="20">
         <v>5</v>
       </c>
       <c r="K145" s="7"/>
-      <c r="L145" s="41"/>
+      <c r="L145" s="44"/>
       <c r="M145" s="43"/>
       <c r="N145" s="43"/>
     </row>
     <row r="146" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="45"/>
-      <c r="B146" s="41"/>
+      <c r="A146" s="52"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6816,27 +6835,27 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F146" s="30" t="s">
-        <v>147</v>
+      <c r="F146" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G146" s="7"/>
       <c r="H146" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I146" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J146" s="20">
         <v>6</v>
       </c>
       <c r="K146" s="7"/>
-      <c r="L146" s="41"/>
+      <c r="L146" s="44"/>
       <c r="M146" s="43"/>
       <c r="N146" s="43"/>
     </row>
     <row r="147" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="45"/>
-      <c r="B147" s="41"/>
+      <c r="A147" s="52"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6849,27 +6868,27 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F147" s="30" t="s">
-        <v>147</v>
+      <c r="F147" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G147" s="7"/>
       <c r="H147" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J147" s="20">
         <v>7</v>
       </c>
       <c r="K147" s="7"/>
-      <c r="L147" s="41"/>
+      <c r="L147" s="44"/>
       <c r="M147" s="43"/>
       <c r="N147" s="43"/>
     </row>
     <row r="148" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="45"/>
-      <c r="B148" s="41"/>
+      <c r="A148" s="52"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6882,27 +6901,27 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F148" s="30" t="s">
-        <v>147</v>
+      <c r="F148" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G148" s="7"/>
       <c r="H148" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I148" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J148" s="20">
         <v>8</v>
       </c>
       <c r="K148" s="7"/>
-      <c r="L148" s="41"/>
+      <c r="L148" s="44"/>
       <c r="M148" s="43"/>
       <c r="N148" s="43"/>
     </row>
     <row r="149" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="45"/>
-      <c r="B149" s="41"/>
+      <c r="A149" s="52"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6915,27 +6934,27 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F149" s="30" t="s">
-        <v>147</v>
+      <c r="F149" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G149" s="7"/>
       <c r="H149" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I149" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J149" s="20">
         <v>9</v>
       </c>
       <c r="K149" s="7"/>
-      <c r="L149" s="41"/>
+      <c r="L149" s="44"/>
       <c r="M149" s="43"/>
       <c r="N149" s="43"/>
     </row>
     <row r="150" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="45"/>
-      <c r="B150" s="41"/>
+      <c r="A150" s="52"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6948,29 +6967,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F150" s="30" t="s">
-        <v>147</v>
+      <c r="F150" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="J150" s="20">
         <v>10</v>
       </c>
       <c r="K150" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L150" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L150" s="44"/>
       <c r="M150" s="43"/>
       <c r="N150" s="43"/>
     </row>
     <row r="151" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="45"/>
-      <c r="B151" s="41"/>
+      <c r="A151" s="52"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -6983,29 +7002,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F151" s="30" t="s">
-        <v>147</v>
+      <c r="F151" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G151" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="H151" s="41" t="s">
+        <v>97</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J151" s="21">
         <v>11</v>
       </c>
       <c r="K151" s="11"/>
-      <c r="L151" s="41"/>
+      <c r="L151" s="44"/>
       <c r="M151" s="43"/>
       <c r="N151" s="43"/>
     </row>
     <row r="152" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="45"/>
-      <c r="B152" s="41"/>
+      <c r="A152" s="52"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7018,29 +7037,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F152" s="30" t="s">
-        <v>147</v>
+      <c r="F152" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H152" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="H152" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J152" s="21">
         <v>12</v>
       </c>
       <c r="K152" s="11"/>
-      <c r="L152" s="41"/>
+      <c r="L152" s="44"/>
       <c r="M152" s="43"/>
       <c r="N152" s="43"/>
     </row>
     <row r="153" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="45"/>
-      <c r="B153" s="41"/>
+      <c r="A153" s="52"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7053,29 +7072,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F153" s="30" t="s">
-        <v>147</v>
+      <c r="F153" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="H153" s="41" t="s">
+        <v>110</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J153" s="21">
         <v>13</v>
       </c>
       <c r="K153" s="11"/>
-      <c r="L153" s="41"/>
+      <c r="L153" s="44"/>
       <c r="M153" s="43"/>
       <c r="N153" s="43"/>
     </row>
     <row r="154" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="45"/>
-      <c r="B154" s="41"/>
+      <c r="A154" s="52"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7088,29 +7107,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F154" s="30" t="s">
-        <v>147</v>
+      <c r="F154" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="H154" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J154" s="21">
         <v>14</v>
       </c>
       <c r="K154" s="11"/>
-      <c r="L154" s="41"/>
+      <c r="L154" s="44"/>
       <c r="M154" s="43"/>
       <c r="N154" s="43"/>
     </row>
     <row r="155" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="45"/>
-      <c r="B155" s="41"/>
+      <c r="A155" s="52"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7123,29 +7142,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F155" s="30" t="s">
-        <v>147</v>
+      <c r="F155" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G155" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="H155" s="41" t="s">
+        <v>114</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J155" s="21">
         <v>15</v>
       </c>
       <c r="K155" s="11"/>
-      <c r="L155" s="41"/>
+      <c r="L155" s="44"/>
       <c r="M155" s="43"/>
       <c r="N155" s="43"/>
     </row>
     <row r="156" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="45"/>
-      <c r="B156" s="41"/>
+      <c r="A156" s="52"/>
+      <c r="B156" s="44"/>
       <c r="C156" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7158,29 +7177,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F156" s="30" t="s">
-        <v>148</v>
+      <c r="F156" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H156" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="H156" s="41" t="s">
+        <v>81</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J156" s="21">
         <v>16</v>
       </c>
       <c r="K156" s="11"/>
-      <c r="L156" s="41"/>
+      <c r="L156" s="44"/>
       <c r="M156" s="43"/>
       <c r="N156" s="43"/>
     </row>
     <row r="157" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="45"/>
-      <c r="B157" s="41"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="44"/>
       <c r="C157" s="43" t="str">
         <f t="shared" si="24"/>
         <v>DM Review</v>
@@ -7193,29 +7212,29 @@
         <f t="shared" si="24"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F157" s="30" t="s">
-        <v>148</v>
+      <c r="F157" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G157" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H157" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="H157" s="41" t="s">
+        <v>116</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J157" s="21">
         <v>17</v>
       </c>
       <c r="K157" s="11"/>
-      <c r="L157" s="41"/>
+      <c r="L157" s="44"/>
       <c r="M157" s="43"/>
       <c r="N157" s="43"/>
     </row>
     <row r="158" spans="1:14" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="56"/>
-      <c r="B158" s="41"/>
+      <c r="A158" s="53"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="43" t="str">
         <f t="shared" ref="C158:E158" si="25">C157</f>
         <v>DM Review</v>
@@ -7228,32 +7247,32 @@
         <f t="shared" si="25"/>
         <v>AE_DEMO</v>
       </c>
-      <c r="F158" s="30" t="s">
-        <v>148</v>
+      <c r="F158" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G158" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H158" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I158" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="H158" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I158" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="J158" s="21">
         <v>18</v>
       </c>
       <c r="K158" s="11"/>
-      <c r="L158" s="41"/>
+      <c r="L158" s="44"/>
       <c r="M158" s="43"/>
       <c r="N158" s="43"/>
     </row>
     <row r="159" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="44">
+      <c r="A159" s="51">
         <v>9</v>
       </c>
       <c r="B159" s="43" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C159" s="43" t="s">
         <v>8</v>
@@ -7262,10 +7281,10 @@
         <v>9</v>
       </c>
       <c r="E159" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="F159" s="30" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="F159" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>10</v>
@@ -7280,578 +7299,578 @@
         <v>1</v>
       </c>
       <c r="K159" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L159" s="41" t="s">
-        <v>194</v>
+        <v>137</v>
+      </c>
+      <c r="L159" s="44" t="s">
+        <v>187</v>
       </c>
       <c r="M159" s="43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N159" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="45"/>
+      <c r="A160" s="52"/>
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="43"/>
       <c r="E160" s="43"/>
-      <c r="F160" s="30" t="s">
-        <v>147</v>
+      <c r="F160" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="J160" s="6">
         <v>2</v>
       </c>
       <c r="K160" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L160" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="L160" s="44"/>
       <c r="M160" s="43"/>
       <c r="N160" s="43"/>
     </row>
     <row r="161" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="45"/>
+      <c r="A161" s="52"/>
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="43"/>
       <c r="E161" s="43"/>
-      <c r="F161" s="30" t="s">
-        <v>147</v>
+      <c r="F161" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="I161" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="J161" s="6">
         <v>3</v>
       </c>
       <c r="K161" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L161" s="41"/>
+        <v>139</v>
+      </c>
+      <c r="L161" s="44"/>
       <c r="M161" s="43"/>
       <c r="N161" s="43"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A162" s="45"/>
+      <c r="A162" s="52"/>
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
       <c r="D162" s="43"/>
       <c r="E162" s="43"/>
-      <c r="F162" s="30" t="s">
-        <v>147</v>
+      <c r="F162" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="J162" s="6">
         <v>4</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="41"/>
+      <c r="L162" s="44"/>
       <c r="M162" s="43"/>
       <c r="N162" s="43"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A163" s="45"/>
+      <c r="A163" s="52"/>
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="43"/>
       <c r="E163" s="43"/>
-      <c r="F163" s="30" t="s">
-        <v>147</v>
+      <c r="F163" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I163" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J163" s="6">
         <v>5</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="41"/>
+      <c r="L163" s="44"/>
       <c r="M163" s="43"/>
       <c r="N163" s="43"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A164" s="45"/>
+      <c r="A164" s="52"/>
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="43"/>
       <c r="E164" s="43"/>
-      <c r="F164" s="30" t="s">
-        <v>147</v>
+      <c r="F164" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J164" s="6">
         <v>6</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="41"/>
+      <c r="L164" s="44"/>
       <c r="M164" s="43"/>
       <c r="N164" s="43"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
+      <c r="A165" s="52"/>
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
       <c r="D165" s="43"/>
       <c r="E165" s="43"/>
-      <c r="F165" s="30" t="s">
-        <v>147</v>
+      <c r="F165" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J165" s="6">
         <v>7</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="41"/>
+      <c r="L165" s="44"/>
       <c r="M165" s="43"/>
       <c r="N165" s="43"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A166" s="45"/>
+      <c r="A166" s="52"/>
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="43"/>
       <c r="E166" s="43"/>
-      <c r="F166" s="30" t="s">
-        <v>147</v>
+      <c r="F166" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J166" s="6">
         <v>8</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="41"/>
+      <c r="L166" s="44"/>
       <c r="M166" s="43"/>
       <c r="N166" s="43"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A167" s="45"/>
+      <c r="A167" s="52"/>
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
       <c r="D167" s="43"/>
       <c r="E167" s="43"/>
-      <c r="F167" s="30" t="s">
-        <v>147</v>
+      <c r="F167" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J167" s="6">
         <v>9</v>
       </c>
       <c r="K167" s="5"/>
-      <c r="L167" s="41"/>
+      <c r="L167" s="44"/>
       <c r="M167" s="43"/>
       <c r="N167" s="43"/>
     </row>
     <row r="168" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A168" s="45"/>
+      <c r="A168" s="52"/>
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
       <c r="D168" s="43"/>
       <c r="E168" s="43"/>
-      <c r="F168" s="30" t="s">
-        <v>147</v>
+      <c r="F168" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="J168" s="6">
         <v>10</v>
       </c>
       <c r="K168" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L168" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="L168" s="44"/>
       <c r="M168" s="43"/>
       <c r="N168" s="43"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A169" s="45"/>
+      <c r="A169" s="52"/>
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
       <c r="D169" s="43"/>
       <c r="E169" s="43"/>
-      <c r="F169" s="30" t="s">
-        <v>147</v>
+      <c r="F169" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="H169" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J169" s="10">
         <v>11</v>
       </c>
       <c r="K169" s="9"/>
-      <c r="L169" s="41"/>
+      <c r="L169" s="44"/>
       <c r="M169" s="43"/>
       <c r="N169" s="43"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A170" s="45"/>
+      <c r="A170" s="52"/>
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
       <c r="D170" s="43"/>
       <c r="E170" s="43"/>
-      <c r="F170" s="30" t="s">
-        <v>147</v>
+      <c r="F170" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="H170" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J170" s="10">
         <v>12</v>
       </c>
       <c r="K170" s="9"/>
-      <c r="L170" s="41"/>
+      <c r="L170" s="44"/>
       <c r="M170" s="43"/>
       <c r="N170" s="43"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A171" s="45"/>
+      <c r="A171" s="52"/>
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
       <c r="D171" s="43"/>
       <c r="E171" s="43"/>
-      <c r="F171" s="30" t="s">
-        <v>147</v>
+      <c r="F171" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H171" s="39" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="H171" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J171" s="10">
         <v>13</v>
       </c>
       <c r="K171" s="9"/>
-      <c r="L171" s="41"/>
+      <c r="L171" s="44"/>
       <c r="M171" s="43"/>
       <c r="N171" s="43"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A172" s="45"/>
+      <c r="A172" s="52"/>
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
       <c r="D172" s="43"/>
       <c r="E172" s="43"/>
-      <c r="F172" s="30" t="s">
-        <v>147</v>
+      <c r="F172" s="40" t="s">
+        <v>192</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
+      </c>
+      <c r="H172" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J172" s="10">
         <v>14</v>
       </c>
       <c r="K172" s="9"/>
-      <c r="L172" s="41"/>
+      <c r="L172" s="44"/>
       <c r="M172" s="43"/>
       <c r="N172" s="43"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A173" s="45"/>
+      <c r="A173" s="52"/>
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
       <c r="D173" s="43"/>
       <c r="E173" s="43"/>
-      <c r="F173" s="30" t="s">
-        <v>146</v>
+      <c r="F173" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H173" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J173" s="10">
         <v>16</v>
       </c>
       <c r="K173" s="9"/>
-      <c r="L173" s="41"/>
+      <c r="L173" s="44"/>
       <c r="M173" s="43"/>
       <c r="N173" s="43"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A174" s="45"/>
+      <c r="A174" s="52"/>
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
       <c r="D174" s="43"/>
       <c r="E174" s="43"/>
-      <c r="F174" s="30" t="s">
-        <v>146</v>
+      <c r="F174" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H174" s="40" t="s">
+        <v>30</v>
       </c>
       <c r="I174" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J174" s="10">
         <v>17</v>
       </c>
       <c r="K174" s="9"/>
-      <c r="L174" s="41"/>
+      <c r="L174" s="44"/>
       <c r="M174" s="43"/>
       <c r="N174" s="43"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A175" s="45"/>
+      <c r="A175" s="52"/>
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
       <c r="D175" s="43"/>
       <c r="E175" s="43"/>
-      <c r="F175" s="30" t="s">
-        <v>146</v>
+      <c r="F175" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G175" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H175" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="I175" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J175" s="10">
         <v>18</v>
       </c>
       <c r="K175" s="9"/>
-      <c r="L175" s="41"/>
+      <c r="L175" s="44"/>
       <c r="M175" s="43"/>
       <c r="N175" s="43"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A176" s="45"/>
+      <c r="A176" s="52"/>
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
       <c r="D176" s="43"/>
       <c r="E176" s="43"/>
-      <c r="F176" s="30" t="s">
-        <v>146</v>
+      <c r="F176" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="H176" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="H176" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J176" s="10">
         <v>19</v>
       </c>
       <c r="K176" s="9"/>
-      <c r="L176" s="41"/>
+      <c r="L176" s="44"/>
       <c r="M176" s="43"/>
       <c r="N176" s="43"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A177" s="45"/>
+      <c r="A177" s="52"/>
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
       <c r="D177" s="43"/>
       <c r="E177" s="43"/>
-      <c r="F177" s="30" t="s">
-        <v>146</v>
+      <c r="F177" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H177" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="H177" s="40" t="s">
+        <v>88</v>
       </c>
       <c r="I177" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J177" s="10">
         <v>20</v>
       </c>
       <c r="K177" s="9"/>
-      <c r="L177" s="41"/>
+      <c r="L177" s="44"/>
       <c r="M177" s="43"/>
       <c r="N177" s="43"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A178" s="45"/>
+      <c r="A178" s="52"/>
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
       <c r="D178" s="43"/>
       <c r="E178" s="43"/>
-      <c r="F178" s="30" t="s">
-        <v>146</v>
+      <c r="F178" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H178" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="H178" s="40" t="s">
+        <v>90</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J178" s="10">
         <v>21</v>
       </c>
       <c r="K178" s="9"/>
-      <c r="L178" s="41"/>
+      <c r="L178" s="44"/>
       <c r="M178" s="43"/>
       <c r="N178" s="43"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A179" s="45"/>
+      <c r="A179" s="52"/>
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
       <c r="D179" s="43"/>
       <c r="E179" s="43"/>
-      <c r="F179" s="30" t="s">
-        <v>146</v>
+      <c r="F179" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G179" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H179" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="H179" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="I179" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J179" s="10">
         <v>22</v>
       </c>
       <c r="K179" s="9"/>
-      <c r="L179" s="41"/>
+      <c r="L179" s="44"/>
       <c r="M179" s="43"/>
       <c r="N179" s="43"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A180" s="56"/>
+      <c r="A180" s="53"/>
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
       <c r="D180" s="43"/>
       <c r="E180" s="43"/>
-      <c r="F180" s="30" t="s">
-        <v>146</v>
+      <c r="F180" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="H180" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="H180" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J180" s="10">
         <v>23</v>
       </c>
       <c r="K180" s="9"/>
-      <c r="L180" s="41"/>
+      <c r="L180" s="44"/>
       <c r="M180" s="43"/>
       <c r="N180" s="43"/>
     </row>
     <row r="181" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A181" s="44">
+      <c r="A181" s="51">
         <v>10</v>
       </c>
-      <c r="B181" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="C181" s="58" t="s">
+      <c r="B181" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C181" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D181" s="58" t="s">
+      <c r="D181" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E181" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="F181" s="30" t="s">
-        <v>146</v>
+      <c r="E181" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="F181" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G181" s="22" t="s">
         <v>10</v>
@@ -7866,676 +7885,682 @@
         <v>1</v>
       </c>
       <c r="K181" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="L181" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="M181" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="N181" s="57" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="L181" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M181" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N181" s="45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="45"/>
-      <c r="B182" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C182" s="58" t="str">
+      <c r="A182" s="52"/>
+      <c r="B182" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C182" s="46" t="str">
         <f t="shared" ref="C182:E197" si="26">C181</f>
         <v>DM Review</v>
       </c>
-      <c r="D182" s="58" t="str">
+      <c r="D182" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E182" s="58" t="str">
+      <c r="E182" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F182" s="30" t="s">
-        <v>148</v>
+      <c r="F182" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G182" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H182" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I182" s="22" t="s">
         <v>12</v>
-      </c>
-      <c r="H182" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I182" s="22" t="s">
-        <v>13</v>
       </c>
       <c r="J182" s="6">
         <v>2</v>
       </c>
       <c r="K182" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="L182" s="57"/>
-      <c r="M182" s="57"/>
-      <c r="N182" s="57"/>
+        <v>138</v>
+      </c>
+      <c r="L182" s="45"/>
+      <c r="M182" s="45"/>
+      <c r="N182" s="45"/>
     </row>
     <row r="183" spans="1:14" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="A183" s="45"/>
-      <c r="B183" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C183" s="58" t="str">
+      <c r="A183" s="52"/>
+      <c r="B183" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C183" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D183" s="58" t="str">
+      <c r="D183" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E183" s="58" t="str">
+      <c r="E183" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F183" s="30" t="s">
-        <v>148</v>
+      <c r="F183" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="G183" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H183" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="I183" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="J183" s="6">
         <v>3</v>
       </c>
       <c r="K183" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="L183" s="57"/>
-      <c r="M183" s="57"/>
-      <c r="N183" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="L183" s="45"/>
+      <c r="M183" s="45"/>
+      <c r="N183" s="45"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A184" s="45"/>
-      <c r="B184" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C184" s="58" t="str">
+      <c r="A184" s="52"/>
+      <c r="B184" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C184" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D184" s="58" t="str">
+      <c r="D184" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E184" s="58" t="str">
+      <c r="E184" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F184" s="30" t="s">
-        <v>146</v>
+      <c r="F184" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G184" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="H184" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I184" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="J184" s="6">
         <v>4</v>
       </c>
       <c r="K184" s="23"/>
-      <c r="L184" s="57"/>
-      <c r="M184" s="57"/>
-      <c r="N184" s="57"/>
+      <c r="L184" s="45"/>
+      <c r="M184" s="45"/>
+      <c r="N184" s="45"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A185" s="45"/>
-      <c r="B185" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C185" s="58" t="str">
+      <c r="A185" s="52"/>
+      <c r="B185" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C185" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D185" s="58" t="str">
+      <c r="D185" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E185" s="58" t="str">
+      <c r="E185" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F185" s="30" t="s">
-        <v>146</v>
+      <c r="F185" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G185" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="H185" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I185" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="J185" s="6">
         <v>5</v>
       </c>
       <c r="K185" s="23"/>
-      <c r="L185" s="57"/>
-      <c r="M185" s="57"/>
-      <c r="N185" s="57"/>
+      <c r="L185" s="45"/>
+      <c r="M185" s="45"/>
+      <c r="N185" s="45"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A186" s="45"/>
-      <c r="B186" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C186" s="58" t="str">
+      <c r="A186" s="52"/>
+      <c r="B186" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D186" s="58" t="str">
+      <c r="D186" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E186" s="58" t="str">
+      <c r="E186" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F186" s="30" t="s">
-        <v>146</v>
+      <c r="F186" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G186" s="22"/>
       <c r="H186" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I186" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J186" s="6">
         <v>6</v>
       </c>
       <c r="K186" s="23"/>
-      <c r="L186" s="57"/>
-      <c r="M186" s="57"/>
-      <c r="N186" s="57"/>
+      <c r="L186" s="45"/>
+      <c r="M186" s="45"/>
+      <c r="N186" s="45"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A187" s="45"/>
-      <c r="B187" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C187" s="58" t="str">
+      <c r="A187" s="52"/>
+      <c r="B187" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D187" s="58" t="str">
+      <c r="D187" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E187" s="58" t="str">
+      <c r="E187" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F187" s="30" t="s">
-        <v>146</v>
+      <c r="F187" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G187" s="22"/>
       <c r="H187" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I187" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J187" s="6">
         <v>7</v>
       </c>
       <c r="K187" s="23"/>
-      <c r="L187" s="57"/>
-      <c r="M187" s="57"/>
-      <c r="N187" s="57"/>
+      <c r="L187" s="45"/>
+      <c r="M187" s="45"/>
+      <c r="N187" s="45"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A188" s="45"/>
-      <c r="B188" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C188" s="58" t="str">
+      <c r="A188" s="52"/>
+      <c r="B188" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C188" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D188" s="58" t="str">
+      <c r="D188" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E188" s="58" t="str">
+      <c r="E188" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F188" s="30" t="s">
-        <v>146</v>
+      <c r="F188" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G188" s="22"/>
       <c r="H188" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I188" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J188" s="6">
         <v>8</v>
       </c>
       <c r="K188" s="23"/>
-      <c r="L188" s="57"/>
-      <c r="M188" s="57"/>
-      <c r="N188" s="57"/>
+      <c r="L188" s="45"/>
+      <c r="M188" s="45"/>
+      <c r="N188" s="45"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A189" s="45"/>
-      <c r="B189" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C189" s="58" t="str">
+      <c r="A189" s="52"/>
+      <c r="B189" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C189" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D189" s="58" t="str">
+      <c r="D189" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E189" s="58" t="str">
+      <c r="E189" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F189" s="30" t="s">
-        <v>146</v>
+      <c r="F189" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G189" s="22"/>
       <c r="H189" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I189" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J189" s="6">
         <v>9</v>
       </c>
       <c r="K189" s="23"/>
-      <c r="L189" s="57"/>
-      <c r="M189" s="57"/>
-      <c r="N189" s="57"/>
+      <c r="L189" s="45"/>
+      <c r="M189" s="45"/>
+      <c r="N189" s="45"/>
     </row>
     <row r="190" spans="1:14" ht="20" x14ac:dyDescent="0.2">
-      <c r="A190" s="45"/>
-      <c r="B190" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C190" s="58" t="str">
+      <c r="A190" s="52"/>
+      <c r="B190" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C190" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D190" s="58" t="str">
+      <c r="D190" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E190" s="58" t="str">
+      <c r="E190" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F190" s="30" t="s">
-        <v>146</v>
+      <c r="F190" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G190" s="22"/>
       <c r="H190" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="I190" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="J190" s="6">
         <v>10</v>
       </c>
       <c r="K190" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L190" s="57"/>
-      <c r="M190" s="57"/>
-      <c r="N190" s="57"/>
+        <v>26</v>
+      </c>
+      <c r="L190" s="45"/>
+      <c r="M190" s="45"/>
+      <c r="N190" s="45"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A191" s="45"/>
-      <c r="B191" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C191" s="58" t="str">
+      <c r="A191" s="52"/>
+      <c r="B191" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C191" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D191" s="58" t="str">
+      <c r="D191" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E191" s="58" t="str">
+      <c r="E191" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F191" s="30" t="s">
-        <v>146</v>
+      <c r="F191" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G191" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H191" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="H191" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J191" s="10">
         <v>11</v>
       </c>
       <c r="K191" s="25"/>
-      <c r="L191" s="57"/>
-      <c r="M191" s="57"/>
-      <c r="N191" s="57"/>
+      <c r="L191" s="45"/>
+      <c r="M191" s="45"/>
+      <c r="N191" s="45"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A192" s="45"/>
-      <c r="B192" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C192" s="58" t="str">
+      <c r="A192" s="52"/>
+      <c r="B192" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C192" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D192" s="58" t="str">
+      <c r="D192" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E192" s="58" t="str">
+      <c r="E192" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F192" s="30" t="s">
-        <v>146</v>
+      <c r="F192" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G192" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H192" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="H192" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J192" s="10">
         <v>12</v>
       </c>
       <c r="K192" s="25"/>
-      <c r="L192" s="57"/>
-      <c r="M192" s="57"/>
-      <c r="N192" s="57"/>
+      <c r="L192" s="45"/>
+      <c r="M192" s="45"/>
+      <c r="N192" s="45"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A193" s="45"/>
-      <c r="B193" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C193" s="58" t="str">
+      <c r="A193" s="52"/>
+      <c r="B193" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C193" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D193" s="58" t="str">
+      <c r="D193" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E193" s="58" t="str">
+      <c r="E193" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F193" s="30" t="s">
-        <v>146</v>
+      <c r="F193" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G193" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H193" s="24" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="H193" s="42" t="s">
+        <v>55</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J193" s="10">
         <v>13</v>
       </c>
       <c r="K193" s="25"/>
-      <c r="L193" s="57"/>
-      <c r="M193" s="57"/>
-      <c r="N193" s="57"/>
+      <c r="L193" s="45"/>
+      <c r="M193" s="45"/>
+      <c r="N193" s="45"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A194" s="45"/>
-      <c r="B194" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C194" s="58" t="str">
+      <c r="A194" s="52"/>
+      <c r="B194" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C194" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D194" s="58" t="str">
+      <c r="D194" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E194" s="58" t="str">
+      <c r="E194" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F194" s="30" t="s">
-        <v>146</v>
+      <c r="F194" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G194" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H194" s="24" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="H194" s="42" t="s">
+        <v>57</v>
       </c>
       <c r="I194" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J194" s="10">
         <v>14</v>
       </c>
       <c r="K194" s="25"/>
-      <c r="L194" s="57"/>
-      <c r="M194" s="57"/>
-      <c r="N194" s="57"/>
+      <c r="L194" s="45"/>
+      <c r="M194" s="45"/>
+      <c r="N194" s="45"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A195" s="45"/>
-      <c r="B195" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C195" s="58" t="str">
+      <c r="A195" s="52"/>
+      <c r="B195" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C195" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D195" s="58" t="str">
+      <c r="D195" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E195" s="58" t="str">
+      <c r="E195" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F195" s="30" t="s">
-        <v>146</v>
+      <c r="F195" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G195" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H195" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="H195" s="42" t="s">
+        <v>30</v>
       </c>
       <c r="I195" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J195" s="10">
         <v>15</v>
       </c>
       <c r="K195" s="25"/>
-      <c r="L195" s="57"/>
-      <c r="M195" s="57"/>
-      <c r="N195" s="57"/>
+      <c r="L195" s="45"/>
+      <c r="M195" s="45"/>
+      <c r="N195" s="45"/>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A196" s="45"/>
-      <c r="B196" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C196" s="58" t="str">
+      <c r="A196" s="52"/>
+      <c r="B196" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C196" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D196" s="58" t="str">
+      <c r="D196" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E196" s="58" t="str">
+      <c r="E196" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F196" s="30" t="s">
-        <v>146</v>
+      <c r="F196" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G196" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H196" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="H196" s="42" t="s">
+        <v>32</v>
       </c>
       <c r="I196" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J196" s="10">
         <v>16</v>
       </c>
       <c r="K196" s="25"/>
-      <c r="L196" s="57"/>
-      <c r="M196" s="57"/>
-      <c r="N196" s="57"/>
+      <c r="L196" s="45"/>
+      <c r="M196" s="45"/>
+      <c r="N196" s="45"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A197" s="45"/>
-      <c r="B197" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C197" s="58" t="str">
+      <c r="A197" s="52"/>
+      <c r="B197" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C197" s="46" t="str">
         <f t="shared" si="26"/>
         <v>DM Review</v>
       </c>
-      <c r="D197" s="58" t="str">
+      <c r="D197" s="46" t="str">
         <f t="shared" si="26"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E197" s="58" t="str">
+      <c r="E197" s="46" t="str">
         <f t="shared" si="26"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F197" s="30" t="s">
-        <v>146</v>
+      <c r="F197" s="40" t="s">
+        <v>193</v>
       </c>
       <c r="G197" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H197" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="H197" s="42" t="s">
+        <v>34</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J197" s="10">
         <v>17</v>
       </c>
       <c r="K197" s="25"/>
-      <c r="L197" s="57"/>
-      <c r="M197" s="57"/>
-      <c r="N197" s="57"/>
+      <c r="L197" s="45"/>
+      <c r="M197" s="45"/>
+      <c r="N197" s="45"/>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A198" s="45"/>
-      <c r="B198" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C198" s="58" t="str">
+      <c r="A198" s="52"/>
+      <c r="B198" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C198" s="46" t="str">
         <f t="shared" ref="C198:E198" si="27">C197</f>
         <v>DM Review</v>
       </c>
-      <c r="D198" s="58" t="str">
+      <c r="D198" s="46" t="str">
         <f t="shared" si="27"/>
         <v>RAW Data Structure</v>
       </c>
-      <c r="E198" s="58" t="str">
+      <c r="E198" s="46" t="str">
         <f t="shared" si="27"/>
         <v>CM_DEMO</v>
       </c>
-      <c r="F198" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G198" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H198" s="26" t="s">
-        <v>28</v>
+      <c r="F198" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="G198" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="H198" s="40" t="s">
+        <v>189</v>
       </c>
       <c r="I198" s="26" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J198" s="10">
         <v>18</v>
       </c>
       <c r="K198" s="25"/>
-      <c r="L198" s="57"/>
-      <c r="M198" s="57"/>
-      <c r="N198" s="57"/>
+      <c r="L198" s="45"/>
+      <c r="M198" s="45"/>
+      <c r="N198" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N198" xr:uid="{13975DF8-9F5D-4B3D-9DC7-C137A6F1ABAD}"/>
   <mergeCells count="80">
-    <mergeCell ref="N159:N180"/>
-    <mergeCell ref="C159:C180"/>
-    <mergeCell ref="D159:D180"/>
-    <mergeCell ref="E159:E180"/>
-    <mergeCell ref="L159:L180"/>
-    <mergeCell ref="M159:M180"/>
-    <mergeCell ref="N181:N198"/>
-    <mergeCell ref="C181:C198"/>
-    <mergeCell ref="D181:D198"/>
-    <mergeCell ref="E181:E198"/>
-    <mergeCell ref="L181:L198"/>
-    <mergeCell ref="M181:M198"/>
-    <mergeCell ref="A17:A40"/>
-    <mergeCell ref="A41:A58"/>
-    <mergeCell ref="A59:A75"/>
-    <mergeCell ref="A76:A101"/>
-    <mergeCell ref="B181:B198"/>
-    <mergeCell ref="B159:B180"/>
-    <mergeCell ref="A159:A180"/>
-    <mergeCell ref="A181:A198"/>
-    <mergeCell ref="A102:A124"/>
-    <mergeCell ref="A125:A140"/>
-    <mergeCell ref="A141:A158"/>
-    <mergeCell ref="M141:M158"/>
-    <mergeCell ref="N141:N158"/>
-    <mergeCell ref="B141:B158"/>
-    <mergeCell ref="C141:C158"/>
-    <mergeCell ref="D141:D158"/>
-    <mergeCell ref="E141:E158"/>
-    <mergeCell ref="L141:L158"/>
+    <mergeCell ref="L2:L16"/>
+    <mergeCell ref="M2:M16"/>
+    <mergeCell ref="N2:N16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C2:C16"/>
+    <mergeCell ref="D2:D16"/>
+    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="N17:N40"/>
+    <mergeCell ref="B41:B58"/>
+    <mergeCell ref="C41:C58"/>
+    <mergeCell ref="D41:D58"/>
+    <mergeCell ref="E41:E58"/>
+    <mergeCell ref="L41:L58"/>
+    <mergeCell ref="M41:M58"/>
+    <mergeCell ref="N41:N58"/>
+    <mergeCell ref="B17:B40"/>
+    <mergeCell ref="C17:C40"/>
+    <mergeCell ref="D17:D40"/>
+    <mergeCell ref="E17:E40"/>
+    <mergeCell ref="L17:L40"/>
+    <mergeCell ref="M17:M40"/>
+    <mergeCell ref="M76:M101"/>
+    <mergeCell ref="N76:N101"/>
+    <mergeCell ref="B59:B75"/>
+    <mergeCell ref="C59:C75"/>
+    <mergeCell ref="D59:D75"/>
+    <mergeCell ref="E59:E75"/>
+    <mergeCell ref="L59:L75"/>
+    <mergeCell ref="M59:M75"/>
+    <mergeCell ref="N59:N75"/>
+    <mergeCell ref="B76:B101"/>
+    <mergeCell ref="C76:C101"/>
+    <mergeCell ref="D76:D101"/>
+    <mergeCell ref="E76:E101"/>
+    <mergeCell ref="L76:L101"/>
     <mergeCell ref="N102:N124"/>
     <mergeCell ref="B125:B140"/>
     <mergeCell ref="C125:C140"/>
@@ -8550,42 +8575,36 @@
     <mergeCell ref="E102:E124"/>
     <mergeCell ref="L102:L124"/>
     <mergeCell ref="M102:M124"/>
-    <mergeCell ref="M76:M101"/>
-    <mergeCell ref="N76:N101"/>
-    <mergeCell ref="B59:B75"/>
-    <mergeCell ref="C59:C75"/>
-    <mergeCell ref="D59:D75"/>
-    <mergeCell ref="E59:E75"/>
-    <mergeCell ref="L59:L75"/>
-    <mergeCell ref="M59:M75"/>
-    <mergeCell ref="N59:N75"/>
-    <mergeCell ref="B76:B101"/>
-    <mergeCell ref="C76:C101"/>
-    <mergeCell ref="D76:D101"/>
-    <mergeCell ref="E76:E101"/>
-    <mergeCell ref="L76:L101"/>
-    <mergeCell ref="N17:N40"/>
-    <mergeCell ref="B41:B58"/>
-    <mergeCell ref="C41:C58"/>
-    <mergeCell ref="D41:D58"/>
-    <mergeCell ref="E41:E58"/>
-    <mergeCell ref="L41:L58"/>
-    <mergeCell ref="M41:M58"/>
-    <mergeCell ref="N41:N58"/>
-    <mergeCell ref="B17:B40"/>
-    <mergeCell ref="C17:C40"/>
-    <mergeCell ref="D17:D40"/>
-    <mergeCell ref="E17:E40"/>
-    <mergeCell ref="L17:L40"/>
-    <mergeCell ref="M17:M40"/>
-    <mergeCell ref="L2:L16"/>
-    <mergeCell ref="M2:M16"/>
-    <mergeCell ref="N2:N16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="C2:C16"/>
-    <mergeCell ref="D2:D16"/>
-    <mergeCell ref="E2:E16"/>
+    <mergeCell ref="M141:M158"/>
+    <mergeCell ref="N141:N158"/>
+    <mergeCell ref="B141:B158"/>
+    <mergeCell ref="C141:C158"/>
+    <mergeCell ref="D141:D158"/>
+    <mergeCell ref="E141:E158"/>
+    <mergeCell ref="L141:L158"/>
+    <mergeCell ref="A17:A40"/>
+    <mergeCell ref="A41:A58"/>
+    <mergeCell ref="A59:A75"/>
+    <mergeCell ref="A76:A101"/>
+    <mergeCell ref="B181:B198"/>
+    <mergeCell ref="B159:B180"/>
+    <mergeCell ref="A159:A180"/>
+    <mergeCell ref="A181:A198"/>
+    <mergeCell ref="A102:A124"/>
+    <mergeCell ref="A125:A140"/>
+    <mergeCell ref="A141:A158"/>
+    <mergeCell ref="N181:N198"/>
+    <mergeCell ref="C181:C198"/>
+    <mergeCell ref="D181:D198"/>
+    <mergeCell ref="E181:E198"/>
+    <mergeCell ref="L181:L198"/>
+    <mergeCell ref="M181:M198"/>
+    <mergeCell ref="N159:N180"/>
+    <mergeCell ref="C159:C180"/>
+    <mergeCell ref="D159:D180"/>
+    <mergeCell ref="E159:E180"/>
+    <mergeCell ref="L159:L180"/>
+    <mergeCell ref="M159:M180"/>
   </mergeCells>
   <conditionalFormatting sqref="B17">
     <cfRule type="duplicateValues" dxfId="18" priority="24"/>
@@ -8668,112 +8687,112 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="38" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="35" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="35" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
